--- a/_waste/data-raw/solid_waste/solid_waste_lfgte.xlsx
+++ b/_waste/data-raw/solid_waste/solid_waste_lfgte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metcmn-my.sharepoint.com/personal/zoey_yandell_metc_state_mn_us/Documents/CPRG/solid_waste/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SmithKR/Documents/GitHub/ghg-cprg/_waste/data-raw/solid_waste/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FBE2CF8-FBD4-4132-834C-89509F0F1952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01FE7DE1-41A2-C74E-A09D-B5AEDCB3F756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1BB1D5A-0AF3-4BFD-8B32-50E1154B7D14}"/>
+    <workbookView xWindow="5100" yWindow="3700" windowWidth="26840" windowHeight="15940" xr2:uid="{EC2C56C9-394A-8C4E-954B-476010F77001}"/>
   </bookViews>
   <sheets>
     <sheet name="Default LFGTE" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,33 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_CorrelationEnabledState" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_GoalSeekTargetValue" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_MacroMode" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_MacroRecalculationBehavior" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_MaxAutoIterations" hidden="1">50000</definedName>
+    <definedName name="_AtRisk_SimSetting_MultipleCPUCount" hidden="1">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_MultipleCPUMode" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_MultipleCPUModeV8" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ShowSimulationProgressWindow" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_StatisticFunctionUpdating" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcActiveSimulationNumber" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Default LFGTE'!$A$2:$AF$55</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="AdipicCheck">#REF!</definedName>
@@ -29,58 +56,7 @@
     <definedName name="AlInputRng">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
     <definedName name="AlInputRng2">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
     <definedName name="AlInputRng3">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
-    <definedName name="ChartRange_Adipic">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Aluminum">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Aluminum_CO2">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Ammonia">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Cement">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_CO2">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_ElecPower">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_HCFC22">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_HFC">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Iron">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Lime">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Limestone">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Magnesium">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_N2O">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Nitric">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_ODSsubs">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Semiconductor">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_SodaAsh">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Total_CH4_Emissions">OFFSET([1]Results!$C$24,0,0,1,MAX([1]Results!$C$13:$AM$13))</definedName>
-    <definedName name="ChartRange_TotalEmissions_CH4">OFFSET([1]Results!$C$8,0,0,1,MAX([1]Results!$C$13:$AM$13))</definedName>
-    <definedName name="ChartRange_TotalEmissions_CO2">OFFSET([1]Results!$C$9,0,0,1,MAX([1]Results!$C$13:$AM$13))</definedName>
-    <definedName name="ChartRange_TotalEmissions_N2O">OFFSET([1]Results!$C$10,0,0,1,MAX([1]Results!$C$13:$AM$13))</definedName>
-    <definedName name="ChartRange_Urea">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_WasteCom_CH4">OFFSET([1]Results!$C$33,0,0,1,MAX([1]Results!$C$13:$AM$13))</definedName>
-    <definedName name="ChartRange_WasteCom_CO2">OFFSET([1]Results!$C$28,0,0,1,MAX([1]Results!$C$13:$AM$13))</definedName>
-    <definedName name="ChartRange_WasteCom_CO2_SynRubber">OFFSET([1]Results!$C$30,0,0,1,MAX([1]Results!$C$13:$AM$13))</definedName>
-    <definedName name="ChartRange_WasteCom_CO2_Synthetic_Fibers">OFFSET([1]Results!$C$31,0,0,1,MAX([1]Results!$C$13:$AM$13))</definedName>
-    <definedName name="ChartRange_WasteCom_CO2Plastics">OFFSET([1]Results!$C$29,0,0,1,MAX([1]Results!$C$13:$AM$13))</definedName>
     <definedName name="ChartRange_WasteCom_N2O">OFFSET([1]Results!$C$32,0,0,1,MAX([1]Results!$C$13:$AM$13))</definedName>
-    <definedName name="ChartRange_Year">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Year_MTCE">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRange_Year1">OFFSET([1]Results!$C$7,0,0,1,MAX([1]Results!$C$13:$AM$13))</definedName>
-    <definedName name="ChartRange_Year2">OFFSET([1]Results!$C$15,0,0,1,MAX([1]Results!$C$13:$AM$13))</definedName>
-    <definedName name="ChartRangeC_Adipic">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_Aluminum">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_Aluminum_CO2">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_Ammonia">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_Cement">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_CO2">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_ElecPower">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_HCFC22">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_HFC">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_Iron">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_Lime">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_Limestone">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_Magnesium">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_N2O">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_Nitric">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_ODSsubs">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_Semiconductor">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_SodaAsh">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
-    <definedName name="ChartRangeC_Urea">OFFSET(#REF!,0,0,1,MAX(#REF!))</definedName>
     <definedName name="CKDFactor">#REF!</definedName>
     <definedName name="CO2_C">[1]Lookups!$K$11</definedName>
     <definedName name="CombustionChoice">[1]Control!$A$85</definedName>
@@ -127,6 +103,29 @@
     <definedName name="PlasticsInput3">[1]CO2_Plastics!$B$182:$B$189,[1]CO2_Plastics!$B$193:$B$200,[1]CO2_Plastics!$B$204:$B$211,[1]CO2_Plastics!$B$215:$B$222,[1]CO2_Plastics!$B$226:$B$233,[1]CO2_Plastics!$B$237:$B$244,[1]CO2_Plastics!$B$248:$B$255,[1]CO2_Plastics!$B$259:$B$266,[1]CO2_Plastics!$B$270:$B$277,[1]CO2_Plastics!$B$281:$B$288,[1]CO2_Plastics!$B$292:$B$299,[1]CO2_Plastics!$B$303:$B$310,[1]CO2_Plastics!$B$314:$B$321,[1]CO2_Plastics!$B$325:$B$332,[1]CO2_Plastics!$B$336:$B$343,[1]CO2_Plastics!$B$347:$B$354,[1]CO2_Plastics!$B$358:$B$365,[1]CO2_Plastics!$B$369:$B$376,[1]CO2_Plastics!$B$380:$B$387,[1]CO2_Plastics!$B$391:$B$398</definedName>
     <definedName name="PlasticsInputs">[1]CO2_Plastics!$B$6:$B$13,[1]CO2_Plastics!$B$17:$B$24,[1]CO2_Plastics!$B$28:$B$35,[1]CO2_Plastics!$B$39:$B$46,[1]CO2_Plastics!$B$50:$B$57,[1]CO2_Plastics!$B$61:$B$68,[1]CO2_Plastics!$B$72:$B$79,[1]CO2_Plastics!$B$83:$B$90,[1]CO2_Plastics!$B$94:$B$101,[1]CO2_Plastics!$B$105:$B$112,[1]CO2_Plastics!$B$116:$B$123</definedName>
     <definedName name="PopulationChoice">[1]Control!$A$30</definedName>
+    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
+    <definedName name="RiskFixedSeed" hidden="1">1</definedName>
+    <definedName name="RiskHasSettings" hidden="1">8</definedName>
+    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
+    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
+    <definedName name="RiskMultipleCPUSupportEnabled" hidden="1">FALSE</definedName>
+    <definedName name="RiskNumIterations" hidden="1">10000</definedName>
+    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
+    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskSamplingType" hidden="1">2</definedName>
+    <definedName name="RiskStandardRecalc" hidden="1">1</definedName>
+    <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
     <definedName name="RubberInputs">'[1]CO2_Syn. Rubber'!$B$6:$B$11,'[1]CO2_Syn. Rubber'!$B$15:$B$20,'[1]CO2_Syn. Rubber'!$B$24:$B$29,'[1]CO2_Syn. Rubber'!$B$33:$B$38,'[1]CO2_Syn. Rubber'!$B$42:$B$47,'[1]CO2_Syn. Rubber'!$B$51:$B$56,'[1]CO2_Syn. Rubber'!$B$60:$B$65,'[1]CO2_Syn. Rubber'!$B$69:$B$74,'[1]CO2_Syn. Rubber'!$B$78:$B$83,'[1]CO2_Syn. Rubber'!$B$87:$B$92,'[1]CO2_Syn. Rubber'!$B$96:$B$101</definedName>
     <definedName name="RubberInputs2">'[1]CO2_Syn. Rubber'!$B$105:$B$110,'[1]CO2_Syn. Rubber'!$B$114:$B$119,'[1]CO2_Syn. Rubber'!$B$123:$B$128,'[1]CO2_Syn. Rubber'!$B$132:$B$137,'[1]CO2_Syn. Rubber'!$B$141:$B$146</definedName>
     <definedName name="RubberInputs3">'[1]CO2_Syn. Rubber'!$B$150:$B$155,'[1]CO2_Syn. Rubber'!$B$159:$B$164,'[1]CO2_Syn. Rubber'!$B$168:$B$173,'[1]CO2_Syn. Rubber'!$B$177:$B$182,'[1]CO2_Syn. Rubber'!$B$186:$B$191,'[1]CO2_Syn. Rubber'!$B$195:$B$200,'[1]CO2_Syn. Rubber'!$B$204:$B$209,'[1]CO2_Syn. Rubber'!$B$213:$B$218,'[1]CO2_Syn. Rubber'!$B$222:$B$227,'[1]CO2_Syn. Rubber'!$B$231:$B$236,'[1]CO2_Syn. Rubber'!$B$240:$B$245,'[1]CO2_Syn. Rubber'!$B$249:$B$254,'[1]CO2_Syn. Rubber'!$B$258:$B$263,'[1]CO2_Syn. Rubber'!$B$267:$B$272,'[1]CO2_Syn. Rubber'!$B$276:$B$281,'[1]CO2_Syn. Rubber'!$B$285:$B$290,'[1]CO2_Syn. Rubber'!$B$294:$B$299,'[1]CO2_Syn. Rubber'!$B$303:$B$308,'[1]CO2_Syn. Rubber'!$B$312:$B$317,'[1]CO2_Syn. Rubber'!$B$321:$B$326</definedName>
@@ -138,7 +137,7 @@
     <definedName name="SynFiberFraction">[1]Control!$G$83</definedName>
     <definedName name="SynRubberFraction">[1]Control!$G$82</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,7 +163,7 @@
     <author>ICF Consulting</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E5A546D1-5345-499C-9577-41965CBBB256}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8D5D01DC-9296-3A4C-AE97-175FE80D19BF}">
       <text>
         <r>
           <rPr>
@@ -175,7 +174,7 @@
           </rPr>
           <t xml:space="preserve">LFGTE data update 10/23/2023.
 Source: EPA (2032) LMOP Landfill and Landfill Gas Energy Project Database,  Landfill Methane Outreach Program. https://www.epa.gov/lmop
-Data received from Lauren Aepli at EPA 10.23.2023
+Data received from Lauren Aepli at EPA 9.16.2024
 </t>
         </r>
       </text>
@@ -367,7 +366,7 @@
     <t>Note: LMOP data indicate that LFGTE projects are not present at landfills in WY.</t>
   </si>
   <si>
-    <t>Source: EPA (2023) LMOP Landfill and Landfill Gas Energy Project Database, October 19, 2023, Landfill Methane Outreach Program. https://www.epa.gov/lmop, 10.20.23_CH4Reds_StateInvTool.xls; Obtained from Lauren Aepli at EPA 10.20.23</t>
+    <t>Source: EPA (2024) LMOP Landfill and Landfill Gas Energy Project Database, September 16, 2024, Landfill Methane Outreach Program. https://www.epa.gov/lmop, 09.16.24_CH4Reds_StateInvTool.xls; Obtained from Lauren Aepli at EPA 09.16.24</t>
   </si>
 </sst>
 </file>
@@ -381,13 +380,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -409,14 +407,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -450,32 +450,32 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{DA562E25-FB70-4032-BB24-58585A37EAD7}"/>
-    <cellStyle name="Normal_Landfill Module 10.17.02" xfId="2" xr:uid="{FAB44042-123A-4877-9E54-F1D98241F3C7}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{E5ED7E97-79B9-FE43-BFEE-CF780E766898}"/>
+    <cellStyle name="Normal_Landfill Module 10.17.02" xfId="2" xr:uid="{75965BBB-02AF-CE44-892F-843A9E6E0E3B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,11 +518,11 @@
       <sheetName val="CH4_MSW"/>
       <sheetName val="State WIP"/>
       <sheetName val="MSW Landfilled"/>
+      <sheetName val="MSW Combusted"/>
       <sheetName val="MSW Discarded"/>
-      <sheetName val="MSW Combusted"/>
       <sheetName val="MSW Generated"/>
+      <sheetName val="MSW Flared"/>
       <sheetName val="Default LFGTE"/>
-      <sheetName val="MSW Flared"/>
       <sheetName val="Population"/>
       <sheetName val="Lookups"/>
       <sheetName val="Data Sources"/>
@@ -530,54 +530,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="11">
-          <cell r="A11">
-            <v>2</v>
-          </cell>
-        </row>
         <row r="30">
           <cell r="A30">
             <v>1</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>2</v>
           </cell>
         </row>
         <row r="65">
           <cell r="G65">
             <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="G73">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="G81">
-            <v>0.98</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="G82">
-            <v>0.98</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="G83">
-            <v>0.98</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -587,125 +547,105 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6">
-        <row r="7">
-          <cell r="C7">
-            <v>1990</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>1.9957843783895173</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-        </row>
         <row r="13">
           <cell r="C13">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D13">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="E13">
-            <v>3</v>
+            <v>0</v>
           </cell>
           <cell r="F13">
-            <v>4</v>
+            <v>0</v>
           </cell>
           <cell r="G13">
-            <v>5</v>
+            <v>0</v>
           </cell>
           <cell r="H13">
-            <v>6</v>
+            <v>0</v>
           </cell>
           <cell r="I13">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="J13">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="K13">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="L13">
-            <v>10</v>
+            <v>0</v>
           </cell>
           <cell r="M13">
-            <v>11</v>
+            <v>0</v>
           </cell>
           <cell r="N13">
-            <v>12</v>
+            <v>0</v>
           </cell>
           <cell r="O13">
-            <v>13</v>
+            <v>0</v>
           </cell>
           <cell r="P13">
-            <v>14</v>
+            <v>0</v>
           </cell>
           <cell r="Q13">
-            <v>15</v>
+            <v>0</v>
           </cell>
           <cell r="R13">
-            <v>16</v>
+            <v>0</v>
           </cell>
           <cell r="S13">
-            <v>17</v>
+            <v>0</v>
           </cell>
           <cell r="T13">
-            <v>18</v>
+            <v>0</v>
           </cell>
           <cell r="U13">
-            <v>19</v>
+            <v>0</v>
           </cell>
           <cell r="V13">
-            <v>20</v>
+            <v>0</v>
           </cell>
           <cell r="W13">
-            <v>21</v>
+            <v>0</v>
           </cell>
           <cell r="X13">
-            <v>22</v>
+            <v>0</v>
           </cell>
           <cell r="Y13">
-            <v>23</v>
+            <v>0</v>
           </cell>
           <cell r="Z13">
-            <v>24</v>
+            <v>0</v>
           </cell>
           <cell r="AA13">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="AB13">
-            <v>26</v>
+            <v>0</v>
           </cell>
           <cell r="AC13">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="AD13">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE13">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="AF13">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AG13">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AH13">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AI13">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="AJ13">
             <v>0</v>
@@ -718,45 +658,10 @@
           </cell>
           <cell r="AM13">
             <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>1990</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>1995784.3783895173</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>0</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
             <v>0</v>
           </cell>
         </row>
@@ -768,2530 +673,8 @@
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
-        <row r="6">
-          <cell r="B6">
-            <v>9.786893675369937E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>7.2354466860711586E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>1.7136584256484323E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>8.1602782173734872E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>2.7418534810374921E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>1.5123715629532197E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>1.2131613616495252E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1.0662763537368026E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0.10842389597336516</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>8.0157744104822487E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>1.898472886693164E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>9.040347079491258E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>3.0375566187090631E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>1.67547765873238E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>1.3439982658177004E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>1.1812720183868577E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>0.10577265708516451</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>7.8197684226386215E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>1.8520504158880943E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>8.8192876947052121E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>2.9632806654209511E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>1.6345079860853661E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>1.3111341039461748E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>1.1523869254414809E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>0.11397608370702542</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>8.4262474335933171E-3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>1.9956901816405227E-2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>9.503286579240584E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>3.1931042906248361E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>1.7612757793525884E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>1.4128219381137669E-2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>1.2417627796874364E-2</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>0.11201467441149496</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>8.2812405206941792E-3</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>1.9613464391117795E-2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>9.3397449481513305E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>3.1381543025788473E-2</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>1.7309660637240466E-2</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>1.3885087489584978E-2</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>1.2203933398917738E-2</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>0.11389680278569167</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>8.4203861981639767E-3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>1.9943019943019943E-2</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>9.4966761633428296E-3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>3.1908831908831911E-2</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>1.7600506489395377E-2</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>1.4118391896169674E-2</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>1.2408990186767964E-2</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>0.12311541246955034</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>8.888011060635987E-3</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>2.4425571137007045E-2</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>8.0979656330238993E-3</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>3.2260188294160247E-2</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>1.6130094147080123E-2</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>1.2904075317664099E-2</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>2.0409506879978931E-2</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>0.12737059523064406</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>9.6388558552919831E-3</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>2.6350378669337173E-2</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>8.2618764473931273E-3</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>3.3047505789572509E-2</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>1.6711522814045188E-2</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>1.3081304375039118E-2</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>2.0279151279964949E-2</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>0.13039995069945154</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>1.1339126147778393E-2</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>2.7854809884759968E-2</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>8.4427189252480432E-3</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>3.2045356504591116E-2</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>1.6454058051395822E-2</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>1.3249522400936711E-2</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>2.101435878474148E-2</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>0.13756932722449963</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>1.1815770436460092E-2</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>2.9238003375934411E-2</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>8.7412587412587419E-3</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>3.550759585242344E-2</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>1.7723655654690137E-2</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>1.3684591270798168E-2</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112">
-            <v>2.085845189293465E-2</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>0.14761959787381557</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>1.1902010630922118E-2</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>2.5479547030275017E-2</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>8.0309683383406518E-3</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120">
-            <v>3.2297203605269241E-2</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121">
-            <v>1.9297434712271782E-2</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122">
-            <v>1.3173099144904091E-2</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>2.4844002773284031E-2</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127">
-            <v>0.14815958498023715</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128">
-            <v>1.3031126482213438E-2</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129">
-            <v>2.7729743083003952E-2</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130">
-            <v>8.769762845849802E-3</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131">
-            <v>3.5387845849802368E-2</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>2.130681818181818E-2</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>1.4142786561264822E-2</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>2.7791501976284584E-2</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>0.15119379469155253</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>1.4029556177469952E-2</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>2.8120510850246114E-2</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>8.8720825717479562E-3</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>3.6194412983013284E-2</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143">
-            <v>2.1642969595440514E-2</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144">
-            <v>1.3998856929816844E-2</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145">
-            <v>2.8335405583817867E-2</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>0.15081497402830019</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>1.4687444026509046E-2</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>2.7882261627559853E-2</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>8.7766433816944302E-3</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>3.6181264553107648E-2</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>2.1493820526598602E-2</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>1.3553047943160786E-2</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>2.824049196966983E-2</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160">
-            <v>0.15903137551661914</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>1.5484021188660574E-2</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>3.0735199953431516E-2</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>9.0517492287094711E-3</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>3.6410734035741313E-2</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165">
-            <v>2.2120030269515107E-2</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166">
-            <v>1.4145177251295186E-2</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167">
-            <v>2.9716514348914373E-2</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>0.17001330941496443</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>1.6549968173138127E-2</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>3.408367571321104E-2</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174">
-            <v>9.4901915398414444E-3</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175">
-            <v>3.7324228921937389E-2</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176">
-            <v>2.3146808633759619E-2</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177">
-            <v>1.4987558590359355E-2</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178">
-            <v>3.1711127828250682E-2</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182">
-            <v>0.1709684920358098</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183">
-            <v>1.77886292291594E-2</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184">
-            <v>3.511219625624927E-2</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185">
-            <v>9.7081734682013723E-3</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186">
-            <v>3.8135100569701194E-2</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187">
-            <v>2.3543773979769794E-2</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188">
-            <v>1.4823857690966167E-2</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189">
-            <v>3.2321823043832111E-2</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="B193">
-            <v>0.16790760391628071</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="B194">
-            <v>1.8057102655801138E-2</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195">
-            <v>2.9782493990736941E-2</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="B196">
-            <v>9.7320748079967167E-3</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="B197">
-            <v>3.5703816614879522E-2</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="B198">
-            <v>2.6733892243653631E-2</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="B199">
-            <v>1.5243008735416544E-2</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="B200">
-            <v>3.2655214867796212E-2</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="B204">
-            <v>0.18061358481556644</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="B205">
-            <v>1.7965858899367314E-2</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="B206">
-            <v>2.8530500179061717E-2</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="B207">
-            <v>9.9080816521427712E-3</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="B208">
-            <v>3.3126417571923125E-2</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="B209">
-            <v>2.4591142413751939E-2</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="B210">
-            <v>1.5518682105765787E-2</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="B211">
-            <v>3.7065775337232897E-2</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="B215">
-            <v>0.17171717171717171</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="B216">
-            <v>1.7351428394373179E-2</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="B217">
-            <v>2.8629856850715747E-2</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="B218">
-            <v>6.9405713577492716E-3</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="B219">
-            <v>3.7057693499411293E-2</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="B220">
-            <v>3.3959224143273223E-2</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="B221">
-            <v>1.5182499845076532E-2</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="B222">
-            <v>3.2595897626572473E-2</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="B226">
-            <v>0.1899587178241865</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="B227">
-            <v>1.942690626517727E-2</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="B228">
-            <v>2.9626032054395339E-2</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="B229">
-            <v>5.5245264691597866E-3</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="B230">
-            <v>4.2557066537153958E-2</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="B231">
-            <v>4.547110247693055E-2</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="B232">
-            <v>1.238465274405051E-2</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="B233">
-            <v>1.7969888295288974E-2</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="B237">
-            <v>0.19465672189276761</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="B238">
-            <v>2.616616739010821E-2</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="B239">
-            <v>3.417497096044507E-2</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="B240">
-            <v>5.5022314605367734E-3</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="B241">
-            <v>4.5974200648040593E-2</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="B242">
-            <v>4.3895579874060037E-2</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="B243">
-            <v>1.3266491410405331E-2</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="B244">
-            <v>2.5371400623586234E-2</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="B248">
-            <v>0.19304432419286191</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="B249">
-            <v>2.7482215601629476E-2</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="B250">
-            <v>3.362315315863075E-2</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="B251">
-            <v>5.2897184896941694E-3</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="B252">
-            <v>4.4689001033623152E-2</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="B253">
-            <v>4.3716179242415033E-2</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="B254">
-            <v>1.3619505076913722E-2</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="B255">
-            <v>2.4320544780203075E-2</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="B259">
-            <v>0.19481219672916791</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="B260">
-            <v>2.8035703588330439E-2</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="B261">
-            <v>3.342718504762475E-2</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="B262">
-            <v>5.3914814592943153E-3</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="B263">
-            <v>4.4689390762595101E-2</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="B264">
-            <v>4.4329958665308811E-2</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="B265">
-            <v>1.3598514347331217E-2</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="B266">
-            <v>2.5040436110944708E-2</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="B270">
-            <v>0.19667573642493788</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="B271">
-            <v>2.9989352892464214E-2</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="B272">
-            <v>3.4484798296462796E-2</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="B273">
-            <v>4.9686501833668519E-3</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="B274">
-            <v>4.5605110611617178E-2</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="B275">
-            <v>4.2056074766355138E-2</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="B276">
-            <v>1.378208919910091E-2</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="B277">
-            <v>2.5434756891044599E-2</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="B281">
-            <v>0.20156578639869127</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="B282">
-            <v>2.9796681467632626E-2</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="B283">
-            <v>3.5288618836176677E-2</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="B284">
-            <v>5.1998130404300067E-3</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="B285">
-            <v>4.6330918438887592E-2</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="B286">
-            <v>4.5162421126431408E-2</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="B287">
-            <v>1.3846693152605749E-2</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="B288">
-            <v>2.5590091142790372E-2</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="B292">
-            <v>0.20146752946614283</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="B293">
-            <v>2.9003928819043217E-2</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="B294">
-            <v>3.47238271319621E-2</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="B295">
-            <v>5.3732378091056162E-3</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="B296">
-            <v>4.5816963253986598E-2</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="B297">
-            <v>4.5065865495724521E-2</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="B298">
-            <v>1.3577536399352901E-2</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="B299">
-            <v>2.7386179801247978E-2</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="B303">
-            <v>0.20372076949660178</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="B304">
-            <v>2.8856122566524593E-2</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="B305">
-            <v>3.5422186384057135E-2</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="B306">
-            <v>5.5293168989747725E-3</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="B307">
-            <v>4.6538417233037671E-2</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="B308">
-            <v>4.6077640824789767E-2</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="B309">
-            <v>1.3535306992281995E-2</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="B310">
-            <v>2.7243405137656954E-2</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="B314">
-            <v>0.19741064512559478</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="B315">
-            <v>2.9268562576076133E-2</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="B316">
-            <v>3.4856700232378003E-2</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="B317">
-            <v>4.6475600309837332E-3</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="B318">
-            <v>4.752683412636937E-2</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="B319">
-            <v>4.5092397919663608E-2</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="B320">
-            <v>1.2504149607170521E-2</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="B321">
-            <v>2.3016487772490872E-2</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="B325">
-            <v>0.19741064512559478</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="B326">
-            <v>2.9268562576076133E-2</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="B327">
-            <v>3.4856700232378003E-2</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="B328">
-            <v>4.6475600309837332E-3</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="B329">
-            <v>4.752683412636937E-2</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="B330">
-            <v>4.5092397919663608E-2</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="B331">
-            <v>1.2504149607170521E-2</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="B332">
-            <v>2.3016487772490872E-2</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="B336">
-            <v>0.19741064512559478</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="B337">
-            <v>2.9268562576076133E-2</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="B338">
-            <v>3.4856700232378003E-2</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="B339">
-            <v>4.6475600309837332E-3</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="B340">
-            <v>4.752683412636937E-2</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="B341">
-            <v>4.5092397919663608E-2</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="B342">
-            <v>1.2504149607170521E-2</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="B343">
-            <v>2.3016487772490872E-2</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="B347">
-            <v>0.19741064512559478</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="B348">
-            <v>2.9268562576076133E-2</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="B349">
-            <v>3.4856700232378003E-2</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="B350">
-            <v>4.6475600309837332E-3</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="B351">
-            <v>4.752683412636937E-2</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="B352">
-            <v>4.5092397919663608E-2</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="B353">
-            <v>1.2504149607170521E-2</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="B354">
-            <v>2.3016487772490872E-2</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="B358">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="B359">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="B360">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="B361">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="B362">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="B363">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="B364">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="B365">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="B369">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="B370">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="B371">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="B372">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="B373">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="B374">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="B375">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="B376">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="B380">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="B381">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="B382">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="B383">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="B384">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="B385">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="B386">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="B387">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="B391">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="B392">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="B393">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="394">
-          <cell r="B394">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="B395">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="B396">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="B397">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="B398">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="6">
-          <cell r="B6">
-            <v>1.9310975261383763E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1.1883677083928469E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>7.3130320516482886E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>5.9989716048677371E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>1.3140604467805519E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>1.1426612580700451E-4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>2.1232489477982286E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>1.3066147371066022E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>8.0407060745021665E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>6.5958917017400589E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>1.4448143727621081E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>1.2563603241409635E-4</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>2.0073642950469178E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>1.2353011046442571E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>7.601852951656966E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>6.2358949994061053E-3</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>1.3659579522508612E-3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>1.1877895236964009E-4</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>2.1051320378674639E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>1.2954658694569009E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>7.9720976581963126E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>6.539611360239163E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>1.43248629795715E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>1.2456402590931738E-4</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>2.0666462855395903E-2</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>1.2717823295628249E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>7.8263527973096905E-3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>6.4200550290431065E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>1.406297768266585E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>1.2228676245796391E-4</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>1.8803418803418803E-2</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>1.3865147198480532E-2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>4.8116492560937004E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>3.4188034188034188E-3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>1.3928458372902818E-3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>1.2662234884457108E-4</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>1.9948647047205215E-2</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>1.4615840410823623E-2</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>5.2011323984462437E-3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>3.6868786621897425E-3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>1.5142537362565014E-3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>1.3167423793534794E-4</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>1.9653251549101834E-2</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>1.4520873756024285E-2</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>5.0071978469049261E-3</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>3.5676284659197596E-3</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>1.4395693809851661E-3</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>1.2517994617262314E-4</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>1.9720219387440684E-2</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>1.4543661798237505E-2</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>5.0533062180316756E-3</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>3.5742897639736244E-3</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>1.4790164540580515E-3</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>1.2325137117150429E-4</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>1.9532191945985048E-2</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>1.4649143959488787E-2</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>4.7624789004099347E-3</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>3.2553653243308418E-3</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>1.5071135760790933E-3</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>1.2056908608632747E-4</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>1.9528541714813958E-2</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>1.467529466142824E-2</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>4.6799168014790846E-3</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>3.1199445343193899E-3</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>1.5599722671596949E-3</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>1.7333025190663278E-4</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>2.198616600790514E-2</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>1.6489624505928852E-2</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>5.37302371541502E-3</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>3.58201581027668E-3</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>1.79100790513834E-3</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>1.2351778656126481E-4</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>2.2118531087140951E-2</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>1.666464670948976E-2</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>5.3023875893831052E-3</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>3.5147254878196582E-3</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>1.7876621015634469E-3</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>1.5149678826808873E-4</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>2.2329691324855214E-2</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124">
-            <v>1.6896531136187234E-2</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125">
-            <v>5.2540450176129915E-3</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126">
-            <v>3.4628933070631083E-3</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127">
-            <v>1.7911517105498836E-3</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128">
-            <v>1.7911517105498835E-4</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>2.2352872693404739E-2</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>1.6735549217067349E-2</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>5.4426916584201642E-3</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135">
-            <v>3.7254787822341229E-3</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>1.7172128761860411E-3</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>1.7463181791722453E-4</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>2.2799606504253226E-2</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>1.6897170302644524E-2</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143">
-            <v>5.7288351368555059E-3</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144">
-            <v>4.0506915109079335E-3</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145">
-            <v>1.6781436259475724E-3</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>1.7360106475319714E-4</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>2.3543773979769794E-2</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>1.7149168701313802E-2</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>6.1620741774212305E-3</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>4.534356470177886E-3</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>1.6277177072433438E-3</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>2.3253110103476339E-4</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>2.5326845283461335E-2</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160">
-            <v>1.9464149615993433E-2</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>5.6868147974438645E-3</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>4.0452600105528522E-3</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>1.6415547868910126E-3</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>1.7588087002403706E-4</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168">
-            <v>2.6322072340933509E-2</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169">
-            <v>1.9935537782022204E-2</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170">
-            <v>6.2074728423063153E-3</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>4.5362301539930766E-3</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>1.6712426883132387E-3</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>1.7906171660498986E-4</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177">
-            <v>2.7576377269628805E-2</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178">
-            <v>2.1007622234616101E-2</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179">
-            <v>6.5687550350127036E-3</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180">
-            <v>4.8955815826981471E-3</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181">
-            <v>1.6731734523145567E-3</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186">
-            <v>2.7197668771248178E-2</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187">
-            <v>2.0883924235065566E-2</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188">
-            <v>6.3137445361826127E-3</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189">
-            <v>4.7960174842156386E-3</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190">
-            <v>1.5177270519669743E-3</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195">
-            <v>2.7816836828269242E-2</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="B196">
-            <v>2.139756679097634E-2</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="B197">
-            <v>6.4192700372929018E-3</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="B198">
-            <v>4.8908724093660203E-3</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="B199">
-            <v>1.5283976279268814E-3</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="B200">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="B204">
-            <v>2.7421414239678969E-2</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="B205">
-            <v>2.1280476682677692E-2</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="B206">
-            <v>6.1409375570012767E-3</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="B207">
-            <v>4.6817048701890919E-3</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="B208">
-            <v>1.4592326868121846E-3</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="B209">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="B213">
-            <v>2.791589288923501E-2</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="B214">
-            <v>2.1565925837177261E-2</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="B215">
-            <v>6.3499670520577485E-3</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="B216">
-            <v>4.8523333133648839E-3</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="B217">
-            <v>1.4976337386928653E-3</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="B218">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="B222">
-            <v>2.756417839820182E-2</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="B223">
-            <v>2.1116763279309121E-2</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="B224">
-            <v>6.447415118892701E-3</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="B225">
-            <v>4.9094995859458182E-3</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="B226">
-            <v>1.5379155329468827E-3</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="B227">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="B231">
-            <v>2.7634961439588688E-2</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="B232">
-            <v>2.1032951624211264E-2</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="B233">
-            <v>6.6020098153774243E-3</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="B234">
-            <v>5.0245384435615801E-3</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="B235">
-            <v>1.5774713718158448E-3</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="B236">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="B240">
-            <v>2.7906170556967876E-2</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="B241">
-            <v>2.1261844233880285E-2</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="B242">
-            <v>6.6443263230875895E-3</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="B243">
-            <v>5.0843540559278944E-3</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="B244">
-            <v>1.5599722671596949E-3</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="B245">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="B249">
-            <v>2.8337749107245708E-2</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="B250">
-            <v>2.1598894136620205E-2</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="B251">
-            <v>6.7388549706255043E-3</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="B252">
-            <v>5.1261375417578619E-3</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="B253">
-            <v>1.612717428867642E-3</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="B254">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="B258">
-            <v>2.7553391612260707E-2</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="B259">
-            <v>2.1024676330640698E-2</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="B260">
-            <v>6.5287152816200069E-3</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="B261">
-            <v>4.9795286046254291E-3</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="B262">
-            <v>1.5491866769945779E-3</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="B263">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="B267">
-            <v>2.7553391612260707E-2</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="B268">
-            <v>2.1024676330640698E-2</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="B269">
-            <v>6.5287152816200069E-3</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="B270">
-            <v>4.9795286046254291E-3</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="B271">
-            <v>1.5491866769945779E-3</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="B272">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="B276">
-            <v>2.7553391612260707E-2</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="B277">
-            <v>2.1024676330640698E-2</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="B278">
-            <v>6.5287152816200069E-3</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="B279">
-            <v>4.9795286046254291E-3</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="B280">
-            <v>1.5491866769945779E-3</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="B281">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="B285">
-            <v>2.7553391612260707E-2</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="B286">
-            <v>2.1024676330640698E-2</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="B287">
-            <v>6.5287152816200069E-3</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="B288">
-            <v>4.9795286046254291E-3</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="B289">
-            <v>1.5491866769945779E-3</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="B290">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="B294">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="B295">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="B296">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="B297">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="B298">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="B299">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="B303">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="B304">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="B305">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="B306">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="B307">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="B308">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="B312">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="B313">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="B314">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="B315">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="B316">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="B317">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="B321">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="B322">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="B323">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="B324">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="B325">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="B326">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
@@ -3300,8 +683,7 @@
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25">
+      <sheetData sheetId="24">
         <row r="3">
           <cell r="A3" t="str">
             <v>AL</v>
@@ -3401,6 +783,9 @@
           </cell>
           <cell r="AG3">
             <v>6.5915597966399994E-2</v>
+          </cell>
+          <cell r="AH3">
+            <v>6.3825095842200003E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -3503,6 +888,9 @@
           <cell r="AG4">
             <v>3.0009385602E-3</v>
           </cell>
+          <cell r="AH4">
+            <v>2.2971011616000001E-3</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -3604,6 +992,9 @@
           <cell r="AG5">
             <v>4.3749972428400001E-2</v>
           </cell>
+          <cell r="AH5">
+            <v>4.5710912444400002E-2</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -3705,6 +1096,9 @@
           <cell r="AG6">
             <v>1.37931120054E-2</v>
           </cell>
+          <cell r="AH6">
+            <v>1.59921661662E-2</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
@@ -3806,6 +1200,9 @@
           <cell r="AG7">
             <v>0.49227579688307499</v>
           </cell>
+          <cell r="AH7">
+            <v>0.510137859421675</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -3907,6 +1304,9 @@
           <cell r="AG8">
             <v>1.9616403517200003E-2</v>
           </cell>
+          <cell r="AH8">
+            <v>1.8642936866399999E-2</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -4008,6 +1408,9 @@
           <cell r="AG9">
             <v>7.4340636677999996E-3</v>
           </cell>
+          <cell r="AH9">
+            <v>7.2344679876000005E-3</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -4109,6 +1512,9 @@
           <cell r="AG10">
             <v>2.0169668735999999E-3</v>
           </cell>
+          <cell r="AH10">
+            <v>2.0169668735999999E-3</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -4210,6 +1616,9 @@
           <cell r="AG11">
             <v>0.1241485130844</v>
           </cell>
+          <cell r="AH11">
+            <v>0.12329060182740001</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -4311,6 +1720,9 @@
           <cell r="AG12">
             <v>0.11815223864976</v>
           </cell>
+          <cell r="AH12">
+            <v>0.12643020686015999</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -4412,6 +1824,9 @@
           <cell r="AG13">
             <v>1.2889678926600001E-2</v>
           </cell>
+          <cell r="AH13">
+            <v>1.2917692355399999E-2</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -4513,6 +1928,9 @@
           <cell r="AG14">
             <v>6.7932564839999999E-3</v>
           </cell>
+          <cell r="AH14">
+            <v>6.2469946224000001E-3</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -4614,6 +2032,9 @@
           <cell r="AG15">
             <v>0.24836355806219998</v>
           </cell>
+          <cell r="AH15">
+            <v>0.29960362101599997</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
@@ -4715,6 +2136,9 @@
           <cell r="AG16">
             <v>6.0576699194993575E-2</v>
           </cell>
+          <cell r="AH16">
+            <v>9.5607252629189649E-2</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
@@ -4816,6 +2240,9 @@
           <cell r="AG17">
             <v>1.3730081790599999E-2</v>
           </cell>
+          <cell r="AH17">
+            <v>1.28406554262E-2</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
@@ -4917,6 +2344,9 @@
           <cell r="AG18">
             <v>2.6346629786400001E-2</v>
           </cell>
+          <cell r="AH18">
+            <v>3.54755058966E-2</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
@@ -5018,6 +2448,9 @@
           <cell r="AG19">
             <v>5.0578245698400005E-2</v>
           </cell>
+          <cell r="AH19">
+            <v>5.8457022548400003E-2</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
@@ -5119,6 +2552,9 @@
           <cell r="AG20">
             <v>3.5307425323799997E-2</v>
           </cell>
+          <cell r="AH20">
+            <v>3.2716183159800002E-2</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
@@ -5220,6 +2656,9 @@
           <cell r="AG21">
             <v>1.44549292608E-2</v>
           </cell>
+          <cell r="AH21">
+            <v>1.4609003119200001E-2</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
@@ -5321,6 +2760,9 @@
           <cell r="AG22">
             <v>1.3936680828E-2</v>
           </cell>
+          <cell r="AH22">
+            <v>1.38106203984E-2</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
@@ -5422,6 +2864,9 @@
           <cell r="AG23">
             <v>1.6324825633200001E-2</v>
           </cell>
+          <cell r="AH23">
+            <v>1.6755532101E-2</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
@@ -5523,6 +2968,9 @@
           <cell r="AG24">
             <v>7.4018482246799994E-2</v>
           </cell>
+          <cell r="AH24">
+            <v>7.8150462994799996E-2</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
@@ -5624,6 +3072,9 @@
           <cell r="AG25">
             <v>3.04330887126E-2</v>
           </cell>
+          <cell r="AH25">
+            <v>2.8475650375200001E-2</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
@@ -5725,6 +3176,9 @@
           <cell r="AG26">
             <v>2.4627305593800001E-2</v>
           </cell>
+          <cell r="AH26">
+            <v>2.3825421194400002E-2</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
@@ -5826,6 +3280,9 @@
           <cell r="AG27">
             <v>5.68532537496E-2</v>
           </cell>
+          <cell r="AH27">
+            <v>5.8989277695599994E-2</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
@@ -5927,6 +3384,9 @@
           <cell r="AG28">
             <v>4.7867946462000002E-3</v>
           </cell>
+          <cell r="AH28">
+            <v>5.4556152588000001E-3</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
@@ -6028,6 +3488,9 @@
           <cell r="AG29">
             <v>4.4996570010000002E-3</v>
           </cell>
+          <cell r="AH29">
+            <v>6.5866574466000001E-3</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
@@ -6129,6 +3592,9 @@
           <cell r="AG30">
             <v>9.1463845032000012E-3</v>
           </cell>
+          <cell r="AH30">
+            <v>9.8537235804000006E-3</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
@@ -6230,6 +3696,9 @@
           <cell r="AG31">
             <v>1.3905165720599999E-2</v>
           </cell>
+          <cell r="AH31">
+            <v>1.59571493802E-2</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
@@ -6331,6 +3800,9 @@
           <cell r="AG32">
             <v>3.9190786891200001E-2</v>
           </cell>
+          <cell r="AH32">
+            <v>4.88028946482E-2</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
@@ -6432,6 +3904,9 @@
           <cell r="AG33">
             <v>2.7383126651999998E-3</v>
           </cell>
+          <cell r="AH33">
+            <v>3.2285476692000001E-3</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
@@ -6533,6 +4008,9 @@
           <cell r="AG34">
             <v>4.9685317655400005E-2</v>
           </cell>
+          <cell r="AH34">
+            <v>6.0242878634399998E-2</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
@@ -6634,6 +4112,9 @@
           <cell r="AG35">
             <v>5.3593190973000006E-2</v>
           </cell>
+          <cell r="AH35">
+            <v>7.2404208412199994E-2</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
@@ -6735,6 +4216,9 @@
           <cell r="AG36">
             <v>0</v>
           </cell>
+          <cell r="AH36">
+            <v>1.5757553700000002E-4</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
@@ -6836,6 +4320,9 @@
           <cell r="AG37">
             <v>0.14778250045815142</v>
           </cell>
+          <cell r="AH37">
+            <v>0.16738139558235141</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
@@ -6937,6 +4424,9 @@
           <cell r="AG38">
             <v>5.1289086454200002E-2</v>
           </cell>
+          <cell r="AH38">
+            <v>4.91005373292E-2</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
@@ -7038,6 +4528,9 @@
           <cell r="AG39">
             <v>9.5700876138000001E-3</v>
           </cell>
+          <cell r="AH39">
+            <v>1.3674054933E-2</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
@@ -7139,6 +4632,9 @@
           <cell r="AG40">
             <v>0.23258499429060001</v>
           </cell>
+          <cell r="AH40">
+            <v>0.20562206907060002</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
@@ -7240,6 +4736,9 @@
           <cell r="AG41">
             <v>4.0164253542000006E-3</v>
           </cell>
+          <cell r="AH41">
+            <v>4.0164253542000006E-3</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
@@ -7341,6 +4840,9 @@
           <cell r="AG42">
             <v>3.8627716972319995E-2</v>
           </cell>
+          <cell r="AH42">
+            <v>4.1961314999520001E-2</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
@@ -7442,6 +4944,9 @@
           <cell r="AG43">
             <v>4.5416771442000001E-3</v>
           </cell>
+          <cell r="AH43">
+            <v>3.8868632459999999E-4</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
@@ -7543,6 +5048,9 @@
           <cell r="AG44">
             <v>6.0242878634399998E-2</v>
           </cell>
+          <cell r="AH44">
+            <v>6.5145228674400008E-2</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
@@ -7644,6 +5152,9 @@
           <cell r="AG45">
             <v>0.19233319878359997</v>
           </cell>
+          <cell r="AH45">
+            <v>0.24730605112500001</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
@@ -7745,6 +5256,9 @@
           <cell r="AG46">
             <v>1.4556477940199999E-2</v>
           </cell>
+          <cell r="AH46">
+            <v>1.6720515315E-2</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
@@ -7846,6 +5360,9 @@
           <cell r="AG47">
             <v>0</v>
           </cell>
+          <cell r="AH47">
+            <v>0</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
@@ -7947,6 +5464,9 @@
           <cell r="AG48">
             <v>8.8483916543400001E-2</v>
           </cell>
+          <cell r="AH48">
+            <v>9.6919460290799994E-2</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
@@ -8048,6 +5568,9 @@
           <cell r="AG49">
             <v>3.1896790367400001E-2</v>
           </cell>
+          <cell r="AH49">
+            <v>3.2527092515400001E-2</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
@@ -8149,6 +5672,9 @@
           <cell r="AG50">
             <v>2.2557813541200001E-2</v>
           </cell>
+          <cell r="AH50">
+            <v>2.4070538696399999E-2</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
@@ -8250,6 +5776,9 @@
           <cell r="AG51">
             <v>4.9596967009242501E-2</v>
           </cell>
+          <cell r="AH51">
+            <v>4.8203298926442498E-2</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
@@ -8351,16 +5880,20 @@
           <cell r="AG52">
             <v>1.1730623310000001E-3</v>
           </cell>
+          <cell r="AH52">
+            <v>1.2080791170000001E-3</v>
+          </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27">
         <row r="1">
           <cell r="A1" t="str">
-            <v>MN</v>
+            <v>XX</v>
           </cell>
           <cell r="B1" t="str">
-            <v>Minnesota</v>
+            <v>Select a State. . .</v>
           </cell>
         </row>
         <row r="2">
@@ -8823,44 +6356,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -8887,32 +6420,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -8939,24 +6454,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8968,191 +6465,254 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
     <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5279C83A-7D4B-45BE-9084-5FC8D9036AB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A899C-3764-E746-90EC-9E0E66FD815E}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
-    <col min="2" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="3" customWidth="1"/>
-    <col min="15" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="32" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="3" customWidth="1"/>
+    <col min="15" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="32" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>1990</v>
       </c>
@@ -9262,7 +6822,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -9362,10 +6922,12 @@
       <c r="AG3" s="5">
         <v>1.2535714285714285E-2</v>
       </c>
-      <c r="AH3" s="6"/>
+      <c r="AH3" s="5">
+        <v>1.3342857142857142E-2</v>
+      </c>
       <c r="AI3" s="6"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -9465,10 +7027,12 @@
       <c r="AG4" s="5">
         <v>8.0785714285714297E-3</v>
       </c>
-      <c r="AH4" s="6"/>
+      <c r="AH4" s="5">
+        <v>8.6392857142857139E-3</v>
+      </c>
       <c r="AI4" s="6"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -9568,10 +7132,12 @@
       <c r="AG5" s="5">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="AH5" s="6"/>
+      <c r="AH5" s="5">
+        <v>4.0464285714285715E-3</v>
+      </c>
       <c r="AI5" s="6"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -9671,10 +7237,12 @@
       <c r="AG6" s="5">
         <v>2.4242857142857142E-2</v>
       </c>
-      <c r="AH6" s="6"/>
+      <c r="AH6" s="5">
+        <v>1.7532142857142857E-2</v>
+      </c>
       <c r="AI6" s="6"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -9706,78 +7274,80 @@
         <v>0.3554470428571429</v>
       </c>
       <c r="K7" s="5">
-        <v>0.40801132857142858</v>
+        <v>0.39488989999999996</v>
       </c>
       <c r="L7" s="5">
-        <v>0.41366847142857138</v>
+        <v>0.40054704285714282</v>
       </c>
       <c r="M7" s="5">
-        <v>0.41096132857142859</v>
+        <v>0.4121899</v>
       </c>
       <c r="N7" s="5">
-        <v>0.42187204285714286</v>
+        <v>0.42304704285714284</v>
       </c>
       <c r="O7" s="5">
-        <v>0.40679704285714285</v>
+        <v>0.40797204285714284</v>
       </c>
       <c r="P7" s="5">
-        <v>0.43425061428571426</v>
+        <v>0.43632918571428575</v>
       </c>
       <c r="Q7" s="5">
-        <v>0.44978632857142858</v>
+        <v>0.45144704285714282</v>
       </c>
       <c r="R7" s="5">
-        <v>0.4635649</v>
+        <v>0.46296847142857139</v>
       </c>
       <c r="S7" s="5">
-        <v>0.45268275714285716</v>
+        <v>0.45201132857142856</v>
       </c>
       <c r="T7" s="5">
-        <v>0.44816847142857147</v>
+        <v>0.44946847142857138</v>
       </c>
       <c r="U7" s="5">
-        <v>0.49203632857142854</v>
+        <v>0.49321132857142852</v>
       </c>
       <c r="V7" s="5">
-        <v>0.48773214285714284</v>
+        <v>0.48836428571428575</v>
       </c>
       <c r="W7" s="5">
-        <v>0.47414285714285714</v>
+        <v>0.47648928571428567</v>
       </c>
       <c r="X7" s="5">
-        <v>0.47703571428571429</v>
+        <v>0.47963571428571428</v>
       </c>
       <c r="Y7" s="5">
-        <v>0.51568214285714287</v>
+        <v>0.51783571428571429</v>
       </c>
       <c r="Z7" s="5">
-        <v>0.54214642857142858</v>
+        <v>0.54494642857142861</v>
       </c>
       <c r="AA7" s="5">
-        <v>0.53817499999999996</v>
+        <v>0.53779285714285707</v>
       </c>
       <c r="AB7" s="5">
-        <v>0.54020000000000001</v>
+        <v>0.53788214285714286</v>
       </c>
       <c r="AC7" s="5">
-        <v>0.52542142857142859</v>
+        <v>0.52717499999999995</v>
       </c>
       <c r="AD7" s="5">
-        <v>0.50797499999999995</v>
+        <v>0.50994285714285714</v>
       </c>
       <c r="AE7" s="5">
-        <v>0.47052857142857141</v>
+        <v>0.47338214285714286</v>
       </c>
       <c r="AF7" s="5">
-        <v>0.45300714285714289</v>
+        <v>0.45537142857142859</v>
       </c>
       <c r="AG7" s="5">
-        <v>0.44480357142857141</v>
-      </c>
-      <c r="AH7" s="6"/>
+        <v>0.44487500000000002</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0.41920714285714283</v>
+      </c>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -9877,10 +7447,12 @@
       <c r="AG8" s="5">
         <v>9.0357142857142858E-3</v>
       </c>
-      <c r="AH8" s="6"/>
+      <c r="AH8" s="5">
+        <v>7.4642857142857141E-3</v>
+      </c>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -9980,10 +7552,12 @@
       <c r="AG9" s="5">
         <v>7.5392857142857145E-3</v>
       </c>
-      <c r="AH9" s="6"/>
+      <c r="AH9" s="5">
+        <v>7.0321428571428566E-3</v>
+      </c>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -10083,10 +7657,12 @@
       <c r="AG10" s="5">
         <v>2.3035714285714288E-2</v>
       </c>
-      <c r="AH10" s="6"/>
+      <c r="AH10" s="5">
+        <v>2.0975000000000001E-2</v>
+      </c>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -10148,48 +7724,50 @@
         <v>9.7646428571428578E-2</v>
       </c>
       <c r="U11" s="5">
-        <v>0.12211785714285714</v>
+        <v>0.12213571428571428</v>
       </c>
       <c r="V11" s="5">
-        <v>0.11249285714285714</v>
+        <v>0.11265357142857144</v>
       </c>
       <c r="W11" s="5">
-        <v>0.11263928571428572</v>
+        <v>0.11289285714285714</v>
       </c>
       <c r="X11" s="5">
-        <v>0.11263928571428572</v>
+        <v>0.113325</v>
       </c>
       <c r="Y11" s="5">
-        <v>0.11231428571428571</v>
+        <v>0.11334285714285715</v>
       </c>
       <c r="Z11" s="5">
-        <v>0.11134999999999999</v>
+        <v>0.11351785714285714</v>
       </c>
       <c r="AA11" s="5">
-        <v>0.1015607142857143</v>
+        <v>0.10372857142857142</v>
       </c>
       <c r="AB11" s="5">
-        <v>0.10123928571428573</v>
+        <v>0.10165357142857143</v>
       </c>
       <c r="AC11" s="5">
-        <v>0.10947142857142857</v>
+        <v>0.10945357142857144</v>
       </c>
       <c r="AD11" s="5">
-        <v>0.10967142857142857</v>
+        <v>0.11059285714285715</v>
       </c>
       <c r="AE11" s="5">
-        <v>0.10360357142857143</v>
+        <v>0.10271428571428572</v>
       </c>
       <c r="AF11" s="5">
-        <v>9.604642857142856E-2</v>
+        <v>9.4514285714285703E-2</v>
       </c>
       <c r="AG11" s="5">
-        <v>9.9450000000000011E-2</v>
-      </c>
-      <c r="AH11" s="6"/>
+        <v>9.7810714285714292E-2</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>9.4782142857142856E-2</v>
+      </c>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -10263,36 +7841,38 @@
         <v>7.7324999999999991E-2</v>
       </c>
       <c r="Y12" s="5">
-        <v>7.6657142857142854E-2</v>
+        <v>7.6728571428571438E-2</v>
       </c>
       <c r="Z12" s="5">
-        <v>6.7892857142857144E-2</v>
+        <v>6.7621428571428568E-2</v>
       </c>
       <c r="AA12" s="5">
-        <v>6.438214285714286E-2</v>
+        <v>6.5392857142857141E-2</v>
       </c>
       <c r="AB12" s="5">
-        <v>0.10600357142857143</v>
+        <v>8.6360714285714277E-2</v>
       </c>
       <c r="AC12" s="5">
-        <v>0.10586785714285715</v>
+        <v>0.10012142857142857</v>
       </c>
       <c r="AD12" s="5">
-        <v>0.10619285714285713</v>
+        <v>9.8039285714285704E-2</v>
       </c>
       <c r="AE12" s="5">
-        <v>0.10498214285714284</v>
+        <v>9.9125000000000005E-2</v>
       </c>
       <c r="AF12" s="5">
-        <v>0.10208571428571429</v>
+        <v>9.6521428571428564E-2</v>
       </c>
       <c r="AG12" s="5">
-        <v>0.10092857142857144</v>
-      </c>
-      <c r="AH12" s="6"/>
+        <v>9.5685714285714277E-2</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>8.0810714285714291E-2</v>
+      </c>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -10392,10 +7972,12 @@
       <c r="AG13" s="5">
         <v>0</v>
       </c>
-      <c r="AH13" s="6"/>
+      <c r="AH13" s="5">
+        <v>0</v>
+      </c>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -10495,10 +8077,12 @@
       <c r="AG14" s="5">
         <v>1.2757142857142858E-2</v>
       </c>
-      <c r="AH14" s="6"/>
+      <c r="AH14" s="5">
+        <v>1.2939285714285714E-2</v>
+      </c>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -10587,21 +8171,23 @@
         <v>0.17281071428571429</v>
       </c>
       <c r="AD15" s="5">
-        <v>0.15759642857142858</v>
+        <v>0.14868928571428569</v>
       </c>
       <c r="AE15" s="5">
-        <v>0.1244</v>
+        <v>0.11775000000000001</v>
       </c>
       <c r="AF15" s="5">
-        <v>0.12898928571428572</v>
+        <v>0.12244642857142858</v>
       </c>
       <c r="AG15" s="5">
-        <v>0.12492857142857143</v>
-      </c>
-      <c r="AH15" s="6"/>
+        <v>0.11497142857142857</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>9.2907142857142855E-2</v>
+      </c>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -10663,7 +8249,7 @@
         <v>7.7078571428571427E-2</v>
       </c>
       <c r="U16" s="5">
-        <v>9.2535714285714291E-2</v>
+        <v>9.3971428571428581E-2</v>
       </c>
       <c r="V16" s="5">
         <v>0.10331785714285714</v>
@@ -10696,15 +8282,17 @@
         <v>0.12416428571428571</v>
       </c>
       <c r="AF16" s="5">
-        <v>0.14420357142857143</v>
+        <v>0.11563214285714285</v>
       </c>
       <c r="AG16" s="5">
-        <v>0.14136428571428572</v>
-      </c>
-      <c r="AH16" s="6"/>
+        <v>0.11279285714285714</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>0.11703571428571428</v>
+      </c>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -10804,10 +8392,12 @@
       <c r="AG17" s="5">
         <v>2.6682142857142856E-2</v>
       </c>
-      <c r="AH17" s="6"/>
+      <c r="AH17" s="5">
+        <v>2.5435714285714287E-2</v>
+      </c>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -10866,51 +8456,53 @@
         <v>3.0646428571428571E-2</v>
       </c>
       <c r="T18" s="5">
-        <v>3.73E-2</v>
+        <v>3.0646428571428571E-2</v>
       </c>
       <c r="U18" s="5">
-        <v>3.73E-2</v>
+        <v>3.0646428571428571E-2</v>
       </c>
       <c r="V18" s="5">
-        <v>4.9392857142857141E-2</v>
+        <v>4.2739285714285716E-2</v>
       </c>
       <c r="W18" s="5">
-        <v>4.9392857142857141E-2</v>
+        <v>4.2739285714285716E-2</v>
       </c>
       <c r="X18" s="5">
-        <v>4.9392857142857141E-2</v>
+        <v>4.2739285714285716E-2</v>
       </c>
       <c r="Y18" s="5">
-        <v>3.6435714285714287E-2</v>
+        <v>2.9782142857142858E-2</v>
       </c>
       <c r="Z18" s="5">
-        <v>3.7175E-2</v>
+        <v>3.0521428571428571E-2</v>
       </c>
       <c r="AA18" s="5">
-        <v>3.7175E-2</v>
+        <v>3.0521428571428571E-2</v>
       </c>
       <c r="AB18" s="5">
-        <v>3.7175E-2</v>
+        <v>3.0521428571428571E-2</v>
       </c>
       <c r="AC18" s="5">
-        <v>3.7175E-2</v>
+        <v>3.0521428571428571E-2</v>
       </c>
       <c r="AD18" s="5">
-        <v>4.4035714285714289E-2</v>
+        <v>3.7382142857142857E-2</v>
       </c>
       <c r="AE18" s="5">
-        <v>4.5150000000000003E-2</v>
+        <v>3.8496428571428577E-2</v>
       </c>
       <c r="AF18" s="5">
-        <v>4.7732142857142855E-2</v>
+        <v>4.1078571428571423E-2</v>
       </c>
       <c r="AG18" s="5">
-        <v>4.7667857142857144E-2</v>
-      </c>
-      <c r="AH18" s="6"/>
+        <v>4.1014285714285718E-2</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>4.9189285714285713E-2</v>
+      </c>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -11002,18 +8594,20 @@
         <v>4.4424999999999999E-2</v>
       </c>
       <c r="AE19" s="5">
-        <v>4.4424999999999999E-2</v>
+        <v>4.4696428571428574E-2</v>
       </c>
       <c r="AF19" s="5">
-        <v>4.5782142857142862E-2</v>
+        <v>4.5835714285714292E-2</v>
       </c>
       <c r="AG19" s="5">
-        <v>4.9528571428571429E-2</v>
-      </c>
-      <c r="AH19" s="6"/>
+        <v>4.9564285714285714E-2</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>4.8721428571428575E-2</v>
+      </c>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -11102,21 +8696,23 @@
         <v>4.3121428571428574E-2</v>
       </c>
       <c r="AD20" s="5">
-        <v>4.8864285714285714E-2</v>
+        <v>4.9103571428571427E-2</v>
       </c>
       <c r="AE20" s="5">
-        <v>5.1803571428571428E-2</v>
+        <v>5.4599999999999996E-2</v>
       </c>
       <c r="AF20" s="5">
-        <v>5.246428571428572E-2</v>
+        <v>5.1739285714285717E-2</v>
       </c>
       <c r="AG20" s="5">
-        <v>5.246428571428572E-2</v>
-      </c>
-      <c r="AH20" s="6"/>
+        <v>5.0428571428571427E-2</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>4.8639285714285718E-2</v>
+      </c>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -11216,10 +8812,12 @@
       <c r="AG21" s="5">
         <v>7.2500000000000004E-3</v>
       </c>
-      <c r="AH21" s="6"/>
+      <c r="AH21" s="5">
+        <v>5.9071428571428565E-3</v>
+      </c>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -11263,66 +8861,68 @@
         <v>1.9189285714285714E-2</v>
       </c>
       <c r="O22" s="5">
-        <v>2.6671428571428572E-2</v>
+        <v>2.3342857142857141E-2</v>
       </c>
       <c r="P22" s="5">
-        <v>2.6671428571428572E-2</v>
+        <v>2.3307142857142856E-2</v>
       </c>
       <c r="Q22" s="5">
-        <v>2.6671428571428572E-2</v>
+        <v>2.5128571428571427E-2</v>
       </c>
       <c r="R22" s="5">
-        <v>2.7757142857142859E-2</v>
+        <v>2.3867857142857142E-2</v>
       </c>
       <c r="S22" s="5">
-        <v>2.9417857142857141E-2</v>
+        <v>2.7210714285714286E-2</v>
       </c>
       <c r="T22" s="5">
-        <v>3.2942857142857142E-2</v>
+        <v>3.0946428571428573E-2</v>
       </c>
       <c r="U22" s="5">
-        <v>3.987857142857143E-2</v>
+        <v>3.8124999999999999E-2</v>
       </c>
       <c r="V22" s="5">
-        <v>4.378214285714286E-2</v>
+        <v>4.1432142857142855E-2</v>
       </c>
       <c r="W22" s="5">
-        <v>4.0446428571428571E-2</v>
+        <v>3.9082142857142857E-2</v>
       </c>
       <c r="X22" s="5">
-        <v>4.4639285714285715E-2</v>
+        <v>4.3203571428571431E-2</v>
       </c>
       <c r="Y22" s="5">
-        <v>4.7296428571428573E-2</v>
+        <v>4.6457142857142857E-2</v>
       </c>
       <c r="Z22" s="5">
-        <v>4.2939285714285715E-2</v>
+        <v>4.1117857142857143E-2</v>
       </c>
       <c r="AA22" s="5">
-        <v>4.1817857142857143E-2</v>
+        <v>3.9228571428571432E-2</v>
       </c>
       <c r="AB22" s="5">
-        <v>4.4114285714285717E-2</v>
+        <v>4.3310714285714279E-2</v>
       </c>
       <c r="AC22" s="5">
-        <v>4.3264285714285713E-2</v>
+        <v>4.2671428571428575E-2</v>
       </c>
       <c r="AD22" s="5">
-        <v>4.1314285714285713E-2</v>
+        <v>3.9317857142857141E-2</v>
       </c>
       <c r="AE22" s="5">
-        <v>2.6892857142857142E-2</v>
+        <v>2.5632142857142857E-2</v>
       </c>
       <c r="AF22" s="5">
-        <v>2.7542857142857143E-2</v>
+        <v>2.6214285714285714E-2</v>
       </c>
       <c r="AG22" s="5">
-        <v>2.9514285714285715E-2</v>
-      </c>
-      <c r="AH22" s="6"/>
+        <v>2.825357142857143E-2</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>1.8942857142857143E-2</v>
+      </c>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -11369,63 +8969,65 @@
         <v>5.2439285714285709E-2</v>
       </c>
       <c r="P23" s="5">
-        <v>6.1296428571428571E-2</v>
+        <v>5.896071428571429E-2</v>
       </c>
       <c r="Q23" s="5">
-        <v>6.0678571428571429E-2</v>
+        <v>5.8003571428571432E-2</v>
       </c>
       <c r="R23" s="5">
-        <v>6.0260714285714286E-2</v>
+        <v>6.0439285714285709E-2</v>
       </c>
       <c r="S23" s="5">
-        <v>6.4671428571428574E-2</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="T23" s="5">
-        <v>6.7928571428571421E-2</v>
+        <v>6.7689285714285716E-2</v>
       </c>
       <c r="U23" s="5">
-        <v>6.5075000000000008E-2</v>
+        <v>6.4203571428571429E-2</v>
       </c>
       <c r="V23" s="5">
-        <v>6.9267857142857145E-2</v>
+        <v>6.6321428571428573E-2</v>
       </c>
       <c r="W23" s="5">
-        <v>5.0307142857142863E-2</v>
+        <v>5.0089285714285718E-2</v>
       </c>
       <c r="X23" s="5">
-        <v>5.2839285714285714E-2</v>
+        <v>5.3307142857142852E-2</v>
       </c>
       <c r="Y23" s="5">
-        <v>5.240714285714286E-2</v>
+        <v>5.2803571428571429E-2</v>
       </c>
       <c r="Z23" s="5">
-        <v>4.6375E-2</v>
+        <v>4.9103571428571427E-2</v>
       </c>
       <c r="AA23" s="5">
-        <v>4.6375E-2</v>
+        <v>4.7714285714285716E-2</v>
       </c>
       <c r="AB23" s="5">
-        <v>4.6375E-2</v>
+        <v>4.7332142857142857E-2</v>
       </c>
       <c r="AC23" s="5">
-        <v>4.6228571428571431E-2</v>
+        <v>4.5449999999999997E-2</v>
       </c>
       <c r="AD23" s="5">
-        <v>4.2999999999999997E-2</v>
+        <v>4.1967857142857147E-2</v>
       </c>
       <c r="AE23" s="5">
-        <v>3.7017857142857144E-2</v>
+        <v>3.7775000000000003E-2</v>
       </c>
       <c r="AF23" s="5">
-        <v>3.4214285714285711E-2</v>
+        <v>3.4103571428571428E-2</v>
       </c>
       <c r="AG23" s="5">
-        <v>3.3964285714285711E-2</v>
-      </c>
-      <c r="AH23" s="6"/>
+        <v>3.2064285714285719E-2</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>3.0992857142857145E-2</v>
+      </c>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -11445,90 +9047,92 @@
         <v>7.1379899602628291E-2</v>
       </c>
       <c r="G24" s="5">
-        <v>8.2228571428571429E-2</v>
+        <v>8.159642857142857E-2</v>
       </c>
       <c r="H24" s="5">
-        <v>0.10498571428571428</v>
+        <v>0.10435357142857142</v>
       </c>
       <c r="I24" s="5">
-        <v>0.10498571428571428</v>
+        <v>0.10435357142857142</v>
       </c>
       <c r="J24" s="5">
-        <v>0.12382142857142857</v>
+        <v>0.12194285714285714</v>
       </c>
       <c r="K24" s="5">
-        <v>0.1450357142857143</v>
+        <v>0.14315714285714284</v>
       </c>
       <c r="L24" s="5">
-        <v>0.13811428571428572</v>
+        <v>0.13623571428571429</v>
       </c>
       <c r="M24" s="5">
-        <v>0.15280000000000002</v>
+        <v>0.14932857142857142</v>
       </c>
       <c r="N24" s="5">
-        <v>0.15036071428571426</v>
+        <v>0.14710357142857142</v>
       </c>
       <c r="O24" s="5">
-        <v>0.15167857142857141</v>
+        <v>0.15045357142857144</v>
       </c>
       <c r="P24" s="5">
-        <v>0.15384642857142855</v>
+        <v>0.15434642857142858</v>
       </c>
       <c r="Q24" s="5">
-        <v>0.16148928571428572</v>
+        <v>0.16249642857142857</v>
       </c>
       <c r="R24" s="5">
-        <v>0.17393214285714284</v>
+        <v>0.17561428571428572</v>
       </c>
       <c r="S24" s="5">
-        <v>0.18303928571428571</v>
+        <v>0.17957142857142855</v>
       </c>
       <c r="T24" s="5">
-        <v>0.18266785714285713</v>
+        <v>0.18322857142857144</v>
       </c>
       <c r="U24" s="5">
-        <v>0.20963571428571429</v>
+        <v>0.20781785714285714</v>
       </c>
       <c r="V24" s="5">
-        <v>0.20411428571428572</v>
+        <v>0.20018571428571427</v>
       </c>
       <c r="W24" s="5">
-        <v>0.20899285714285715</v>
+        <v>0.20858571428571429</v>
       </c>
       <c r="X24" s="5">
-        <v>0.23535</v>
+        <v>0.23368214285714287</v>
       </c>
       <c r="Y24" s="5">
-        <v>0.25081785714285715</v>
+        <v>0.24526428571428571</v>
       </c>
       <c r="Z24" s="5">
+        <v>0.26477500000000004</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0.26458214285714282</v>
+      </c>
+      <c r="AB24" s="5">
         <v>0.26618928571428568</v>
       </c>
-      <c r="AA24" s="5">
-        <v>0.26573928571428568</v>
-      </c>
-      <c r="AB24" s="5">
-        <v>0.2700392857142857</v>
-      </c>
       <c r="AC24" s="5">
-        <v>0.26164999999999999</v>
+        <v>0.26043571428571427</v>
       </c>
       <c r="AD24" s="5">
-        <v>0.28701785714285716</v>
+        <v>0.28477142857142856</v>
       </c>
       <c r="AE24" s="5">
-        <v>0.27953928571428571</v>
+        <v>0.28275</v>
       </c>
       <c r="AF24" s="5">
-        <v>0.27475357142857143</v>
+        <v>0.27597857142857146</v>
       </c>
       <c r="AG24" s="5">
-        <v>0.2763357142857143</v>
-      </c>
-      <c r="AH24" s="6"/>
+        <v>0.27207857142857145</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>0.24999642857142859</v>
+      </c>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -11599,39 +9203,41 @@
         <v>2.7685714285714286E-2</v>
       </c>
       <c r="X25" s="5">
-        <v>2.925714285714286E-2</v>
+        <v>2.9764285714285715E-2</v>
       </c>
       <c r="Y25" s="5">
-        <v>2.925714285714286E-2</v>
+        <v>2.9457142857142855E-2</v>
       </c>
       <c r="Z25" s="5">
-        <v>2.925714285714286E-2</v>
+        <v>2.9814285714285713E-2</v>
       </c>
       <c r="AA25" s="5">
-        <v>2.925714285714286E-2</v>
+        <v>2.9599999999999998E-2</v>
       </c>
       <c r="AB25" s="5">
-        <v>2.925714285714286E-2</v>
+        <v>2.9510714285714286E-2</v>
       </c>
       <c r="AC25" s="5">
-        <v>2.925714285714286E-2</v>
+        <v>2.9471428571428572E-2</v>
       </c>
       <c r="AD25" s="5">
-        <v>1.9767857142857143E-2</v>
+        <v>2.0150000000000001E-2</v>
       </c>
       <c r="AE25" s="5">
-        <v>1.9767857142857143E-2</v>
+        <v>2.0132142857142855E-2</v>
       </c>
       <c r="AF25" s="5">
-        <v>1.9767857142857143E-2</v>
+        <v>2.0075000000000003E-2</v>
       </c>
       <c r="AG25" s="5">
-        <v>1.2175E-2</v>
-      </c>
-      <c r="AH25" s="6"/>
+        <v>1.1957142857142857E-2</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>1.4421428571428571E-2</v>
+      </c>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -11731,10 +9337,12 @@
       <c r="AG26" s="5">
         <v>1.9474999999999999E-2</v>
       </c>
-      <c r="AH26" s="6"/>
+      <c r="AH26" s="5">
+        <v>1.6999999999999998E-2</v>
+      </c>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -11784,60 +9392,62 @@
         <v>9.3642857142857139E-3</v>
       </c>
       <c r="Q27" s="5">
-        <v>1.4057142857142857E-2</v>
+        <v>1.4267857142857143E-2</v>
       </c>
       <c r="R27" s="5">
-        <v>1.7671428571428571E-2</v>
+        <v>1.7882142857142857E-2</v>
       </c>
       <c r="S27" s="5">
-        <v>1.7671428571428571E-2</v>
+        <v>1.7882142857142857E-2</v>
       </c>
       <c r="T27" s="5">
-        <v>1.9135714285714287E-2</v>
+        <v>1.934642857142857E-2</v>
       </c>
       <c r="U27" s="5">
-        <v>2.7049999999999998E-2</v>
+        <v>2.8207142857142854E-2</v>
       </c>
       <c r="V27" s="5">
-        <v>3.5864285714285717E-2</v>
+        <v>3.7021428571428573E-2</v>
       </c>
       <c r="W27" s="5">
-        <v>3.6449999999999996E-2</v>
+        <v>3.7607142857142853E-2</v>
       </c>
       <c r="X27" s="5">
-        <v>4.978571428571428E-2</v>
+        <v>5.0942857142857137E-2</v>
       </c>
       <c r="Y27" s="5">
-        <v>4.8560714285714283E-2</v>
+        <v>4.9225000000000005E-2</v>
       </c>
       <c r="Z27" s="5">
-        <v>4.7764285714285711E-2</v>
+        <v>4.8092857142857146E-2</v>
       </c>
       <c r="AA27" s="5">
-        <v>5.0314285714285714E-2</v>
+        <v>5.0646428571428571E-2</v>
       </c>
       <c r="AB27" s="5">
-        <v>5.0260714285714284E-2</v>
+        <v>5.047142857142857E-2</v>
       </c>
       <c r="AC27" s="5">
-        <v>5.051428571428572E-2</v>
+        <v>5.0653571428571423E-2</v>
       </c>
       <c r="AD27" s="5">
-        <v>5.0549999999999998E-2</v>
+        <v>5.0149999999999993E-2</v>
       </c>
       <c r="AE27" s="5">
-        <v>4.7910714285714286E-2</v>
+        <v>4.7485714285714284E-2</v>
       </c>
       <c r="AF27" s="5">
-        <v>4.7925000000000002E-2</v>
+        <v>4.7528571428571427E-2</v>
       </c>
       <c r="AG27" s="5">
-        <v>5.2335714285714284E-2</v>
-      </c>
-      <c r="AH27" s="6"/>
+        <v>5.1471428571428571E-2</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>4.6642857142857146E-2</v>
+      </c>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -11937,10 +9547,12 @@
       <c r="AG28" s="5">
         <v>5.5571428571428568E-3</v>
       </c>
-      <c r="AH28" s="6"/>
+      <c r="AH28" s="5">
+        <v>5.5571428571428568E-3</v>
+      </c>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -12040,10 +9652,12 @@
       <c r="AG29" s="5">
         <v>2.9849999999999998E-2</v>
       </c>
-      <c r="AH29" s="6"/>
+      <c r="AH29" s="5">
+        <v>3.1399999999999997E-2</v>
+      </c>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -12143,10 +9757,12 @@
       <c r="AG30" s="5">
         <v>1.1382142857142856E-2</v>
       </c>
-      <c r="AH30" s="6"/>
+      <c r="AH30" s="5">
+        <v>1.2E-2</v>
+      </c>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -12166,90 +9782,92 @@
         <v>7.1825047380512262E-3</v>
       </c>
       <c r="G31" s="5">
-        <v>6.2428571428571429E-3</v>
+        <v>7.1821428571428574E-3</v>
       </c>
       <c r="H31" s="5">
-        <v>8.3571428571428581E-3</v>
+        <v>9.2964285714285701E-3</v>
       </c>
       <c r="I31" s="5">
-        <v>8.3571428571428581E-3</v>
+        <v>9.2964285714285701E-3</v>
       </c>
       <c r="J31" s="5">
-        <v>1.7142857142857144E-2</v>
+        <v>1.8496428571428573E-2</v>
       </c>
       <c r="K31" s="5">
-        <v>1.7596428571428572E-2</v>
+        <v>1.8949999999999998E-2</v>
       </c>
       <c r="L31" s="5">
-        <v>1.7596428571428572E-2</v>
+        <v>1.8949999999999998E-2</v>
       </c>
       <c r="M31" s="5">
-        <v>1.7596428571428572E-2</v>
+        <v>1.8949999999999998E-2</v>
       </c>
       <c r="N31" s="5">
-        <v>1.7596428571428572E-2</v>
+        <v>1.7939285714285713E-2</v>
       </c>
       <c r="O31" s="5">
-        <v>1.7596428571428572E-2</v>
+        <v>1.8642857142857145E-2</v>
       </c>
       <c r="P31" s="5">
-        <v>1.7596428571428572E-2</v>
+        <v>1.9728571428571429E-2</v>
       </c>
       <c r="Q31" s="5">
-        <v>1.7596428571428572E-2</v>
+        <v>2.0524999999999998E-2</v>
       </c>
       <c r="R31" s="5">
-        <v>1.7596428571428572E-2</v>
+        <v>1.9817857142857141E-2</v>
       </c>
       <c r="S31" s="5">
-        <v>1.7596428571428572E-2</v>
+        <v>1.9617857142857142E-2</v>
       </c>
       <c r="T31" s="5">
-        <v>1.7596428571428572E-2</v>
+        <v>1.9907142857142856E-2</v>
       </c>
       <c r="U31" s="5">
-        <v>3.3046428571428574E-2</v>
+        <v>3.4667857142857146E-2</v>
       </c>
       <c r="V31" s="5">
-        <v>2.5546428571428574E-2</v>
+        <v>2.8632142857142856E-2</v>
       </c>
       <c r="W31" s="5">
-        <v>2.5546428571428574E-2</v>
+        <v>2.6792857142857143E-2</v>
       </c>
       <c r="X31" s="5">
-        <v>2.5546428571428574E-2</v>
+        <v>4.2914285714285717E-2</v>
       </c>
       <c r="Y31" s="5">
-        <v>2.8292857142857144E-2</v>
+        <v>2.9085714285714288E-2</v>
       </c>
       <c r="Z31" s="5">
-        <v>2.7207142857142857E-2</v>
+        <v>2.8342857142857142E-2</v>
       </c>
       <c r="AA31" s="5">
-        <v>2.5764285714285715E-2</v>
+        <v>2.6378571428571428E-2</v>
       </c>
       <c r="AB31" s="5">
-        <v>2.7767857142857143E-2</v>
+        <v>2.8235714285714284E-2</v>
       </c>
       <c r="AC31" s="5">
-        <v>2.3925000000000002E-2</v>
+        <v>2.4682142857142857E-2</v>
       </c>
       <c r="AD31" s="5">
-        <v>2.3396428571428571E-2</v>
+        <v>2.4639285714285714E-2</v>
       </c>
       <c r="AE31" s="5">
-        <v>2.4328571428571429E-2</v>
+        <v>2.692857142857143E-2</v>
       </c>
       <c r="AF31" s="5">
-        <v>2.394642857142857E-2</v>
+        <v>2.6332142857142856E-2</v>
       </c>
       <c r="AG31" s="5">
-        <v>2.3707142857142854E-2</v>
-      </c>
-      <c r="AH31" s="6"/>
+        <v>2.8332142857142858E-2</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>2.8199999999999999E-2</v>
+      </c>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -12349,10 +9967,12 @@
       <c r="AG32" s="5">
         <v>6.8767857142857144E-2</v>
       </c>
-      <c r="AH32" s="6"/>
+      <c r="AH32" s="5">
+        <v>6.6942857142857151E-2</v>
+      </c>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -12452,10 +10072,12 @@
       <c r="AG33" s="5">
         <v>4.4714285714285715E-3</v>
       </c>
-      <c r="AH33" s="6"/>
+      <c r="AH33" s="5">
+        <v>4.0571428571428573E-3</v>
+      </c>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -12517,48 +10139,50 @@
         <v>0.18372678571428572</v>
       </c>
       <c r="U34" s="5">
-        <v>0.19974464285714286</v>
+        <v>0.19965535714285715</v>
       </c>
       <c r="V34" s="5">
-        <v>0.183475</v>
+        <v>0.18407142857142858</v>
       </c>
       <c r="W34" s="5">
-        <v>0.18590714285714285</v>
+        <v>0.18626785714285712</v>
       </c>
       <c r="X34" s="5">
-        <v>0.18701071428571428</v>
+        <v>0.18717500000000001</v>
       </c>
       <c r="Y34" s="5">
-        <v>0.19886785714285712</v>
+        <v>0.19908571428571428</v>
       </c>
       <c r="Z34" s="5">
-        <v>0.20691071428571428</v>
+        <v>0.19669285714285714</v>
       </c>
       <c r="AA34" s="5">
-        <v>0.20547500000000002</v>
+        <v>0.20070357142857143</v>
       </c>
       <c r="AB34" s="5">
-        <v>0.20297499999999999</v>
+        <v>0.20209285714285713</v>
       </c>
       <c r="AC34" s="5">
-        <v>0.20244642857142855</v>
+        <v>0.20070000000000002</v>
       </c>
       <c r="AD34" s="5">
-        <v>0.19885357142857144</v>
+        <v>0.19824642857142857</v>
       </c>
       <c r="AE34" s="5">
-        <v>0.19877499999999998</v>
+        <v>0.19910357142857144</v>
       </c>
       <c r="AF34" s="5">
-        <v>0.1894642857142857</v>
+        <v>0.19089285714285714</v>
       </c>
       <c r="AG34" s="5">
-        <v>0.18444285714285713</v>
-      </c>
-      <c r="AH34" s="6"/>
+        <v>0.18761428571428571</v>
+      </c>
+      <c r="AH34" s="5">
+        <v>0.17312142857142859</v>
+      </c>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -12593,75 +10217,77 @@
         <v>4.5821428571428569E-2</v>
       </c>
       <c r="L35" s="5">
-        <v>4.8857142857142863E-2</v>
+        <v>4.8964285714285717E-2</v>
       </c>
       <c r="M35" s="5">
-        <v>4.7414285714285707E-2</v>
+        <v>4.7521428571428569E-2</v>
       </c>
       <c r="N35" s="5">
-        <v>4.7053571428571424E-2</v>
+        <v>4.7142857142857146E-2</v>
       </c>
       <c r="O35" s="5">
-        <v>4.7939285714285719E-2</v>
+        <v>4.8010714285714289E-2</v>
       </c>
       <c r="P35" s="5">
-        <v>4.3521428571428565E-2</v>
+        <v>4.3596428571428571E-2</v>
       </c>
       <c r="Q35" s="5">
-        <v>4.3342857142857141E-2</v>
+        <v>4.3414285714285718E-2</v>
       </c>
       <c r="R35" s="5">
-        <v>4.6046428571428565E-2</v>
+        <v>4.6039285714285713E-2</v>
       </c>
       <c r="S35" s="5">
-        <v>5.0496428571428567E-2</v>
+        <v>5.083214285714286E-2</v>
       </c>
       <c r="T35" s="5">
-        <v>4.9242857142857144E-2</v>
+        <v>4.9450000000000001E-2</v>
       </c>
       <c r="U35" s="5">
-        <v>5.8196428571428573E-2</v>
+        <v>5.8282142857142852E-2</v>
       </c>
       <c r="V35" s="5">
-        <v>5.9339285714285712E-2</v>
+        <v>5.9464285714285713E-2</v>
       </c>
       <c r="W35" s="5">
-        <v>7.9960714285714288E-2</v>
+        <v>7.9339285714285709E-2</v>
       </c>
       <c r="X35" s="5">
-        <v>9.9957142857142856E-2</v>
+        <v>0.10025714285714285</v>
       </c>
       <c r="Y35" s="5">
-        <v>0.11018214285714287</v>
+        <v>0.11133214285714287</v>
       </c>
       <c r="Z35" s="5">
-        <v>0.11507500000000001</v>
+        <v>0.11555714285714284</v>
       </c>
       <c r="AA35" s="5">
-        <v>0.12196785714285714</v>
+        <v>0.11963214285714285</v>
       </c>
       <c r="AB35" s="5">
-        <v>0.12465714285714287</v>
+        <v>0.12219285714285714</v>
       </c>
       <c r="AC35" s="5">
-        <v>0.1246</v>
+        <v>0.12293571428571429</v>
       </c>
       <c r="AD35" s="5">
-        <v>0.118175</v>
+        <v>0.14257142857142857</v>
       </c>
       <c r="AE35" s="5">
-        <v>0.11887857142857142</v>
+        <v>0.11545714285714286</v>
       </c>
       <c r="AF35" s="5">
-        <v>0.11954642857142858</v>
+        <v>0.11534642857142856</v>
       </c>
       <c r="AG35" s="5">
-        <v>0.11233214285714287</v>
-      </c>
-      <c r="AH35" s="6"/>
+        <v>0.10772142857142857</v>
+      </c>
+      <c r="AH35" s="5">
+        <v>9.0103571428571422E-2</v>
+      </c>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -12761,10 +10387,12 @@
       <c r="AG36" s="5">
         <v>4.4892857142857148E-3</v>
       </c>
-      <c r="AH36" s="6"/>
+      <c r="AH36" s="5">
+        <v>4.0499999999999998E-3</v>
+      </c>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -12850,24 +10478,26 @@
         <v>0.19233571428571428</v>
       </c>
       <c r="AC37" s="5">
-        <v>0.19292500000000001</v>
+        <v>0.19073928571428572</v>
       </c>
       <c r="AD37" s="5">
-        <v>0.19048571428571429</v>
+        <v>0.19037499999999999</v>
       </c>
       <c r="AE37" s="5">
-        <v>0.19900357142857142</v>
+        <v>0.1994357142857143</v>
       </c>
       <c r="AF37" s="5">
-        <v>0.19237857142857143</v>
+        <v>0.19272142857142857</v>
       </c>
       <c r="AG37" s="5">
-        <v>0.18407857142857145</v>
-      </c>
-      <c r="AH37" s="6"/>
+        <v>0.18427499999999999</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>0.18099642857142856</v>
+      </c>
       <c r="AI37" s="6"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -12941,36 +10571,38 @@
         <v>1.2714285714285714E-2</v>
       </c>
       <c r="Y38" s="5">
-        <v>1.6689285714285716E-2</v>
+        <v>1.5353571428571428E-2</v>
       </c>
       <c r="Z38" s="5">
-        <v>1.4985714285714285E-2</v>
+        <v>1.3996428571428573E-2</v>
       </c>
       <c r="AA38" s="5">
-        <v>1.4335714285714285E-2</v>
+        <v>1.3432142857142856E-2</v>
       </c>
       <c r="AB38" s="5">
-        <v>1.487857142857143E-2</v>
+        <v>1.540357142857143E-2</v>
       </c>
       <c r="AC38" s="5">
-        <v>1.7789285714285712E-2</v>
+        <v>1.6957142857142858E-2</v>
       </c>
       <c r="AD38" s="5">
-        <v>3.2785714285714286E-2</v>
+        <v>3.0728571428571431E-2</v>
       </c>
       <c r="AE38" s="5">
-        <v>3.2621428571428572E-2</v>
+        <v>3.2828571428571429E-2</v>
       </c>
       <c r="AF38" s="5">
+        <v>3.1660714285714285E-2</v>
+      </c>
+      <c r="AG38" s="5">
         <v>2.9589285714285714E-2</v>
       </c>
-      <c r="AG38" s="5">
-        <v>2.9607142857142856E-2</v>
-      </c>
-      <c r="AH38" s="6"/>
+      <c r="AH38" s="5">
+        <v>3.6810714285714287E-2</v>
+      </c>
       <c r="AI38" s="6"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -12990,90 +10622,92 @@
         <v>4.3372759983481427E-3</v>
       </c>
       <c r="G39" s="5">
-        <v>7.8642857142857143E-3</v>
+        <v>7.1392857142857143E-3</v>
       </c>
       <c r="H39" s="5">
-        <v>1.4867857142857143E-2</v>
+        <v>1.4142857142857143E-2</v>
       </c>
       <c r="I39" s="5">
-        <v>1.4867857142857143E-2</v>
+        <v>1.4142857142857143E-2</v>
       </c>
       <c r="J39" s="5">
-        <v>3.5035714285714288E-2</v>
+        <v>3.4310714285714285E-2</v>
       </c>
       <c r="K39" s="5">
-        <v>3.5035714285714288E-2</v>
+        <v>3.4310714285714285E-2</v>
       </c>
       <c r="L39" s="5">
-        <v>3.5035714285714288E-2</v>
+        <v>3.4310714285714285E-2</v>
       </c>
       <c r="M39" s="5">
-        <v>3.5035714285714288E-2</v>
+        <v>3.4310714285714285E-2</v>
       </c>
       <c r="N39" s="5">
-        <v>3.5035714285714288E-2</v>
+        <v>3.4310714285714285E-2</v>
       </c>
       <c r="O39" s="5">
-        <v>3.5035714285714288E-2</v>
+        <v>3.4310714285714285E-2</v>
       </c>
       <c r="P39" s="5">
-        <v>3.5035714285714288E-2</v>
+        <v>3.4310714285714285E-2</v>
       </c>
       <c r="Q39" s="5">
-        <v>1.9910714285714285E-2</v>
+        <v>1.9185714285714285E-2</v>
       </c>
       <c r="R39" s="5">
-        <v>1.9910714285714285E-2</v>
+        <v>1.9185714285714285E-2</v>
       </c>
       <c r="S39" s="5">
-        <v>2.4174999999999999E-2</v>
+        <v>2.3449999999999999E-2</v>
       </c>
       <c r="T39" s="5">
-        <v>3.3103571428571427E-2</v>
+        <v>3.237857142857143E-2</v>
       </c>
       <c r="U39" s="5">
-        <v>2.8214285714285716E-2</v>
+        <v>2.7489285714285716E-2</v>
       </c>
       <c r="V39" s="5">
-        <v>4.6464285714285715E-2</v>
+        <v>4.5739285714285711E-2</v>
       </c>
       <c r="W39" s="5">
-        <v>4.2428571428571427E-2</v>
+        <v>4.170357142857143E-2</v>
       </c>
       <c r="X39" s="5">
-        <v>4.4453571428571426E-2</v>
+        <v>4.3728571428571429E-2</v>
       </c>
       <c r="Y39" s="5">
-        <v>4.4453571428571426E-2</v>
+        <v>4.3728571428571429E-2</v>
       </c>
       <c r="Z39" s="5">
-        <v>5.3489285714285718E-2</v>
+        <v>5.2764285714285715E-2</v>
       </c>
       <c r="AA39" s="5">
-        <v>5.3489285714285718E-2</v>
+        <v>5.2764285714285715E-2</v>
       </c>
       <c r="AB39" s="5">
-        <v>5.3489285714285718E-2</v>
+        <v>5.2764285714285715E-2</v>
       </c>
       <c r="AC39" s="5">
-        <v>5.2482142857142859E-2</v>
+        <v>5.1757142857142856E-2</v>
       </c>
       <c r="AD39" s="5">
-        <v>5.2482142857142859E-2</v>
+        <v>5.1757142857142856E-2</v>
       </c>
       <c r="AE39" s="5">
-        <v>5.2482142857142859E-2</v>
+        <v>5.1757142857142856E-2</v>
       </c>
       <c r="AF39" s="5">
-        <v>5.2482142857142859E-2</v>
+        <v>5.1757142857142856E-2</v>
       </c>
       <c r="AG39" s="5">
-        <v>5.2482142857142859E-2</v>
-      </c>
-      <c r="AH39" s="6"/>
+        <v>5.1757142857142856E-2</v>
+      </c>
+      <c r="AH39" s="5">
+        <v>4.946785714285714E-2</v>
+      </c>
       <c r="AI39" s="6"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -13102,81 +10736,83 @@
         <v>7.1024999999999991E-2</v>
       </c>
       <c r="J40" s="5">
-        <v>0.120175</v>
+        <v>0.11730357142857142</v>
       </c>
       <c r="K40" s="5">
-        <v>0.10824642857142856</v>
+        <v>0.105375</v>
       </c>
       <c r="L40" s="5">
-        <v>0.11070000000000001</v>
+        <v>0.10782857142857143</v>
       </c>
       <c r="M40" s="5">
-        <v>0.12632142857142856</v>
+        <v>0.12344999999999999</v>
       </c>
       <c r="N40" s="5">
-        <v>0.13680357142857141</v>
+        <v>0.13499642857142857</v>
       </c>
       <c r="O40" s="5">
-        <v>0.13854285714285713</v>
+        <v>0.13780357142857141</v>
       </c>
       <c r="P40" s="5">
-        <v>0.13475000000000001</v>
+        <v>0.13258214285714284</v>
       </c>
       <c r="Q40" s="5">
-        <v>0.162275</v>
+        <v>0.16117500000000001</v>
       </c>
       <c r="R40" s="5">
-        <v>0.18119285714285716</v>
+        <v>0.18206071428571427</v>
       </c>
       <c r="S40" s="5">
-        <v>0.22373571428571429</v>
+        <v>0.22337857142857143</v>
       </c>
       <c r="T40" s="5">
-        <v>0.26428214285714285</v>
+        <v>0.23097142857142858</v>
       </c>
       <c r="U40" s="5">
-        <v>0.29166428571428576</v>
+        <v>0.27250714285714289</v>
       </c>
       <c r="V40" s="5">
-        <v>0.32184642857142853</v>
+        <v>0.30133214285714288</v>
       </c>
       <c r="W40" s="5">
-        <v>0.35094999999999998</v>
+        <v>0.3370678571428572</v>
       </c>
       <c r="X40" s="5">
-        <v>0.36442500000000005</v>
+        <v>0.35197142857142855</v>
       </c>
       <c r="Y40" s="5">
-        <v>0.38223571428571429</v>
+        <v>0.36920357142857141</v>
       </c>
       <c r="Z40" s="5">
-        <v>0.36852499999999999</v>
+        <v>0.34647499999999998</v>
       </c>
       <c r="AA40" s="5">
-        <v>0.35952857142857148</v>
+        <v>0.3461392857142857</v>
       </c>
       <c r="AB40" s="5">
-        <v>0.34870357142857145</v>
+        <v>0.33432500000000004</v>
       </c>
       <c r="AC40" s="5">
-        <v>0.34893928571428573</v>
+        <v>0.33263928571428575</v>
       </c>
       <c r="AD40" s="5">
-        <v>0.34769285714285714</v>
+        <v>0.32637142857142859</v>
       </c>
       <c r="AE40" s="5">
-        <v>0.34341071428571429</v>
+        <v>0.32319285714285717</v>
       </c>
       <c r="AF40" s="5">
-        <v>0.32517142857142856</v>
+        <v>0.31901428571428569</v>
       </c>
       <c r="AG40" s="5">
-        <v>0.27818571428571431</v>
-      </c>
-      <c r="AH40" s="6"/>
+        <v>0.26180357142857141</v>
+      </c>
+      <c r="AH40" s="5">
+        <v>0.31737142857142858</v>
+      </c>
       <c r="AI40" s="6"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -13276,10 +10912,12 @@
       <c r="AG41" s="5">
         <v>3.2403571428571427E-2</v>
       </c>
-      <c r="AH41" s="6"/>
+      <c r="AH41" s="5">
+        <v>3.4264285714285712E-2</v>
+      </c>
       <c r="AI41" s="6"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -13323,66 +10961,68 @@
         <v>1.9678571428571432E-3</v>
       </c>
       <c r="O42" s="5">
-        <v>1.0896428571428571E-2</v>
+        <v>9.9214285714285706E-3</v>
       </c>
       <c r="P42" s="5">
-        <v>1.0896428571428571E-2</v>
+        <v>9.9214285714285706E-3</v>
       </c>
       <c r="Q42" s="5">
-        <v>1.5142857142857142E-2</v>
+        <v>1.4167857142857143E-2</v>
       </c>
       <c r="R42" s="5">
-        <v>2.0746428571428572E-2</v>
+        <v>1.9771428571428572E-2</v>
       </c>
       <c r="S42" s="5">
-        <v>2.6878571428571429E-2</v>
+        <v>2.5903571428571425E-2</v>
       </c>
       <c r="T42" s="5">
-        <v>3.8117857142857141E-2</v>
+        <v>3.7142857142857144E-2</v>
       </c>
       <c r="U42" s="5">
-        <v>4.7725000000000004E-2</v>
+        <v>4.675E-2</v>
       </c>
       <c r="V42" s="5">
-        <v>4.8849999999999998E-2</v>
+        <v>4.7875000000000001E-2</v>
       </c>
       <c r="W42" s="5">
-        <v>5.6342857142857139E-2</v>
+        <v>5.5367857142857142E-2</v>
       </c>
       <c r="X42" s="5">
-        <v>5.6703571428571423E-2</v>
+        <v>5.5728571428571426E-2</v>
       </c>
       <c r="Y42" s="5">
-        <v>5.5757142857142852E-2</v>
+        <v>5.4782142857142856E-2</v>
       </c>
       <c r="Z42" s="5">
-        <v>5.6064285714285719E-2</v>
+        <v>5.5089285714285716E-2</v>
       </c>
       <c r="AA42" s="5">
-        <v>5.9946428571428574E-2</v>
+        <v>5.897142857142857E-2</v>
       </c>
       <c r="AB42" s="5">
-        <v>5.6296428571428574E-2</v>
+        <v>5.532142857142857E-2</v>
       </c>
       <c r="AC42" s="5">
-        <v>5.8107142857142857E-2</v>
+        <v>5.7132142857142854E-2</v>
       </c>
       <c r="AD42" s="5">
-        <v>5.9146428571428565E-2</v>
+        <v>5.8171428571428575E-2</v>
       </c>
       <c r="AE42" s="5">
-        <v>5.7446428571428572E-2</v>
+        <v>5.6471428571428568E-2</v>
       </c>
       <c r="AF42" s="5">
-        <v>5.6171428571428574E-2</v>
+        <v>5.5196428571428577E-2</v>
       </c>
       <c r="AG42" s="5">
-        <v>5.2017857142857137E-2</v>
-      </c>
-      <c r="AH42" s="6"/>
+        <v>5.1042857142857147E-2</v>
+      </c>
+      <c r="AH42" s="5">
+        <v>3.8103571428571424E-2</v>
+      </c>
       <c r="AI42" s="6"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -13482,10 +11122,12 @@
       <c r="AG43" s="5">
         <v>3.3607142857142859E-3</v>
       </c>
-      <c r="AH43" s="6"/>
+      <c r="AH43" s="5">
+        <v>3.3607142857142859E-3</v>
+      </c>
       <c r="AI43" s="6"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -13577,18 +11219,20 @@
         <v>6.8128571428571427E-2</v>
       </c>
       <c r="AE44" s="5">
-        <v>7.2789285714285709E-2</v>
+        <v>6.6735714285714287E-2</v>
       </c>
       <c r="AF44" s="5">
-        <v>9.5792857142857138E-2</v>
+        <v>8.9739285714285716E-2</v>
       </c>
       <c r="AG44" s="5">
-        <v>5.9314285714285715E-2</v>
-      </c>
-      <c r="AH44" s="6"/>
+        <v>5.3260714285714286E-2</v>
+      </c>
+      <c r="AH44" s="5">
+        <v>5.745357142857143E-2</v>
+      </c>
       <c r="AI44" s="6"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -13608,90 +11252,92 @@
         <v>3.9749317084464185E-2</v>
       </c>
       <c r="G45" s="5">
-        <v>3.030357142857143E-2</v>
+        <v>3.0357142857142857E-2</v>
       </c>
       <c r="H45" s="5">
-        <v>3.5725E-2</v>
+        <v>3.577857142857143E-2</v>
       </c>
       <c r="I45" s="5">
-        <v>3.5725E-2</v>
+        <v>3.577857142857143E-2</v>
       </c>
       <c r="J45" s="5">
-        <v>3.7125000000000005E-2</v>
+        <v>3.7178571428571429E-2</v>
       </c>
       <c r="K45" s="5">
-        <v>3.7125000000000005E-2</v>
+        <v>3.7178571428571429E-2</v>
       </c>
       <c r="L45" s="5">
-        <v>6.3564285714285712E-2</v>
+        <v>6.3617857142857143E-2</v>
       </c>
       <c r="M45" s="5">
-        <v>6.3564285714285712E-2</v>
+        <v>6.3617857142857143E-2</v>
       </c>
       <c r="N45" s="5">
-        <v>6.957857142857142E-2</v>
+        <v>6.9035714285714284E-2</v>
       </c>
       <c r="O45" s="5">
-        <v>0.11709642857142857</v>
+        <v>0.11680714285714286</v>
       </c>
       <c r="P45" s="5">
-        <v>0.12609642857142858</v>
+        <v>0.12768571428571429</v>
       </c>
       <c r="Q45" s="5">
-        <v>0.13653214285714285</v>
+        <v>0.13580714285714285</v>
       </c>
       <c r="R45" s="5">
-        <v>0.13875357142857142</v>
+        <v>0.1387892857142857</v>
       </c>
       <c r="S45" s="5">
-        <v>0.14597499999999999</v>
+        <v>0.14761785714285716</v>
       </c>
       <c r="T45" s="5">
-        <v>0.1608</v>
+        <v>0.16255357142857144</v>
       </c>
       <c r="U45" s="5">
-        <v>0.20622857142857143</v>
+        <v>0.20121785714285714</v>
       </c>
       <c r="V45" s="5">
-        <v>0.20874642857142858</v>
+        <v>0.21013571428571429</v>
       </c>
       <c r="W45" s="5">
-        <v>0.22171785714285713</v>
+        <v>0.22108214285714284</v>
       </c>
       <c r="X45" s="5">
-        <v>0.23111428571428569</v>
+        <v>0.23192499999999999</v>
       </c>
       <c r="Y45" s="5">
-        <v>0.23518214285714284</v>
+        <v>0.23646428571428574</v>
       </c>
       <c r="Z45" s="5">
-        <v>0.24173214285714287</v>
+        <v>0.24423928571428571</v>
       </c>
       <c r="AA45" s="5">
-        <v>0.24058928571428573</v>
+        <v>0.24440000000000001</v>
       </c>
       <c r="AB45" s="5">
-        <v>0.23822499999999999</v>
+        <v>0.24286785714285714</v>
       </c>
       <c r="AC45" s="5">
-        <v>0.23672142857142855</v>
+        <v>0.23926428571428571</v>
       </c>
       <c r="AD45" s="5">
-        <v>0.26749642857142858</v>
+        <v>0.2685892857142857</v>
       </c>
       <c r="AE45" s="5">
-        <v>0.31090357142857139</v>
+        <v>0.31521428571428572</v>
       </c>
       <c r="AF45" s="5">
-        <v>0.32349642857142857</v>
+        <v>0.32488214285714317</v>
       </c>
       <c r="AG45" s="5">
-        <v>0.3310392857142857</v>
-      </c>
-      <c r="AH45" s="6"/>
+        <v>0.33263571428571431</v>
+      </c>
+      <c r="AH45" s="5">
+        <v>0.35468214285714289</v>
+      </c>
       <c r="AI45" s="6"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -13791,10 +11437,12 @@
       <c r="AG46" s="5">
         <v>1.6625000000000001E-2</v>
       </c>
-      <c r="AH46" s="6"/>
+      <c r="AH46" s="5">
+        <v>1.7367857142857143E-2</v>
+      </c>
       <c r="AI46" s="6"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -13894,10 +11542,12 @@
       <c r="AG47" s="5">
         <v>1.3442857142857144E-2</v>
       </c>
-      <c r="AH47" s="6"/>
+      <c r="AH47" s="5">
+        <v>1.2689285714285714E-2</v>
+      </c>
       <c r="AI47" s="6"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -13935,72 +11585,74 @@
         <v>3.0175E-2</v>
       </c>
       <c r="M48" s="5">
-        <v>4.3200000000000002E-2</v>
+        <v>4.5332142857142863E-2</v>
       </c>
       <c r="N48" s="5">
-        <v>4.5200000000000004E-2</v>
+        <v>4.7367857142857142E-2</v>
       </c>
       <c r="O48" s="5">
-        <v>4.5432142857142858E-2</v>
+        <v>4.7092857142857145E-2</v>
       </c>
       <c r="P48" s="5">
-        <v>7.1310714285714283E-2</v>
+        <v>7.3932142857142863E-2</v>
       </c>
       <c r="Q48" s="5">
-        <v>7.7810714285714289E-2</v>
+        <v>8.0392857142857141E-2</v>
       </c>
       <c r="R48" s="5">
-        <v>7.7649999999999997E-2</v>
+        <v>8.0324999999999994E-2</v>
       </c>
       <c r="S48" s="5">
-        <v>8.3703571428571433E-2</v>
+        <v>8.7732142857142856E-2</v>
       </c>
       <c r="T48" s="5">
-        <v>8.9246428571428574E-2</v>
+        <v>9.1289285714285712E-2</v>
       </c>
       <c r="U48" s="5">
-        <v>9.620357142857143E-2</v>
+        <v>8.8432142857142862E-2</v>
       </c>
       <c r="V48" s="5">
-        <v>0.11719642857142856</v>
+        <v>0.10564285714285715</v>
       </c>
       <c r="W48" s="5">
-        <v>0.12459285714285714</v>
+        <v>0.10805714285714285</v>
       </c>
       <c r="X48" s="5">
-        <v>0.13800714285714286</v>
+        <v>0.14519285714285715</v>
       </c>
       <c r="Y48" s="5">
-        <v>0.14569642857142859</v>
+        <v>0.14567857142857141</v>
       </c>
       <c r="Z48" s="5">
-        <v>0.15454999999999999</v>
+        <v>0.14880000000000002</v>
       </c>
       <c r="AA48" s="5">
-        <v>0.15834999999999999</v>
+        <v>0.16223214285714288</v>
       </c>
       <c r="AB48" s="5">
-        <v>0.1641</v>
+        <v>0.16127857142857141</v>
       </c>
       <c r="AC48" s="5">
-        <v>0.15626428571428572</v>
+        <v>0.15859285714285715</v>
       </c>
       <c r="AD48" s="5">
-        <v>0.14674285714285712</v>
+        <v>0.14992142857142857</v>
       </c>
       <c r="AE48" s="5">
-        <v>0.14256785714285714</v>
+        <v>0.14337857142857141</v>
       </c>
       <c r="AF48" s="5">
-        <v>0.1384892857142857</v>
+        <v>0.14280357142857142</v>
       </c>
       <c r="AG48" s="5">
-        <v>0.13617142857142858</v>
-      </c>
-      <c r="AH48" s="6"/>
+        <v>0.14565</v>
+      </c>
+      <c r="AH48" s="5">
+        <v>0.12999285714285716</v>
+      </c>
       <c r="AI48" s="6"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -14100,10 +11752,12 @@
       <c r="AG49" s="5">
         <v>8.1014285714285719E-2</v>
       </c>
-      <c r="AH49" s="6"/>
+      <c r="AH49" s="5">
+        <v>7.964285714285714E-2</v>
+      </c>
       <c r="AI49" s="6"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -14198,15 +11852,17 @@
         <v>4.2285714285714288E-3</v>
       </c>
       <c r="AF50" s="5">
-        <v>4.2285714285714288E-3</v>
+        <v>4.3249999999999999E-3</v>
       </c>
       <c r="AG50" s="5">
-        <v>4.2285714285714288E-3</v>
-      </c>
-      <c r="AH50" s="6"/>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="AH50" s="5">
+        <v>4.9928571428571435E-3</v>
+      </c>
       <c r="AI50" s="6"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -14226,90 +11882,92 @@
         <v>4.0038683070591462E-2</v>
       </c>
       <c r="G51" s="5">
-        <v>2.692857142857143E-2</v>
+        <v>3.1989285714285713E-2</v>
       </c>
       <c r="H51" s="5">
-        <v>2.9928571428571426E-2</v>
+        <v>3.4989285714285716E-2</v>
       </c>
       <c r="I51" s="5">
-        <v>3.2821428571428571E-2</v>
+        <v>3.7882142857142857E-2</v>
       </c>
       <c r="J51" s="5">
-        <v>3.4432142857142856E-2</v>
+        <v>3.9492857142857142E-2</v>
       </c>
       <c r="K51" s="5">
-        <v>3.4432142857142856E-2</v>
+        <v>3.9492857142857142E-2</v>
       </c>
       <c r="L51" s="5">
-        <v>4.9164285714285716E-2</v>
+        <v>5.3735714285714282E-2</v>
       </c>
       <c r="M51" s="5">
-        <v>5.4764285714285717E-2</v>
+        <v>5.9335714285714283E-2</v>
       </c>
       <c r="N51" s="5">
-        <v>6.1271428571428574E-2</v>
+        <v>6.3421428571428573E-2</v>
       </c>
       <c r="O51" s="5">
-        <v>5.9189285714285715E-2</v>
+        <v>6.0528571428571432E-2</v>
       </c>
       <c r="P51" s="5">
-        <v>7.2389285714285712E-2</v>
+        <v>7.3474999999999999E-2</v>
       </c>
       <c r="Q51" s="5">
-        <v>7.6975000000000002E-2</v>
+        <v>7.7535714285714277E-2</v>
       </c>
       <c r="R51" s="5">
-        <v>8.8817857142857143E-2</v>
+        <v>9.2507142857142857E-2</v>
       </c>
       <c r="S51" s="5">
-        <v>0.10553214285714285</v>
+        <v>0.109525</v>
       </c>
       <c r="T51" s="5">
-        <v>0.11652142857142857</v>
+        <v>0.11285357142857143</v>
       </c>
       <c r="U51" s="5">
-        <v>0.11997142857142858</v>
+        <v>0.11607142857142858</v>
       </c>
       <c r="V51" s="5">
-        <v>0.12027857142857143</v>
+        <v>0.11630357142857142</v>
       </c>
       <c r="W51" s="5">
-        <v>0.13514285714285715</v>
+        <v>0.1298</v>
       </c>
       <c r="X51" s="5">
-        <v>0.13591785714285715</v>
+        <v>0.13037857142857143</v>
       </c>
       <c r="Y51" s="5">
-        <v>0.13067500000000001</v>
+        <v>0.129325</v>
       </c>
       <c r="Z51" s="5">
-        <v>0.13111785714285715</v>
+        <v>0.12825</v>
       </c>
       <c r="AA51" s="5">
-        <v>0.13081071428571428</v>
+        <v>0.12988214285714286</v>
       </c>
       <c r="AB51" s="5">
-        <v>0.13014285714285714</v>
+        <v>0.13132142857142856</v>
       </c>
       <c r="AC51" s="5">
-        <v>0.12902142857142856</v>
+        <v>0.12923928571428572</v>
       </c>
       <c r="AD51" s="5">
-        <v>0.12540357142857142</v>
+        <v>0.12108571428571428</v>
       </c>
       <c r="AE51" s="5">
-        <v>0.12280000000000001</v>
+        <v>0.11751785714285715</v>
       </c>
       <c r="AF51" s="5">
-        <v>0.12738214285714286</v>
+        <v>0.119875</v>
       </c>
       <c r="AG51" s="5">
-        <v>0.11823571428571429</v>
-      </c>
-      <c r="AH51" s="6"/>
+        <v>0.11062857142857142</v>
+      </c>
+      <c r="AH51" s="5">
+        <v>0.107775</v>
+      </c>
       <c r="AI51" s="6"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -14409,15 +12067,17 @@
       <c r="AG52" s="5">
         <v>0</v>
       </c>
-      <c r="AH52" s="6"/>
+      <c r="AH52" s="5">
+        <v>0</v>
+      </c>
       <c r="AI52" s="6"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <f t="shared" ref="B53:AG53" si="0">SUM(B3:B52)</f>
+        <f t="shared" ref="B53:AH53" si="0">SUM(B3:B52)</f>
         <v>0.76902309110111355</v>
       </c>
       <c r="C53" s="7">
@@ -14438,116 +12098,119 @@
       </c>
       <c r="G53" s="7">
         <f t="shared" si="0"/>
-        <v>0.94286132857142868</v>
+        <v>0.94755775714285717</v>
       </c>
       <c r="H53" s="7">
         <f t="shared" si="0"/>
-        <v>1.0625291857142858</v>
+        <v>1.0672256142857142</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="0"/>
-        <v>1.241161328571428</v>
+        <v>1.2458577571428566</v>
       </c>
       <c r="J53" s="7">
         <f t="shared" si="0"/>
-        <v>1.4875113285714283</v>
+        <v>1.4885041857142858</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="0"/>
-        <v>1.6322470428571432</v>
+        <v>1.6201184714285712</v>
       </c>
       <c r="L53" s="7">
         <f t="shared" si="0"/>
-        <v>1.7342720428571432</v>
+        <v>1.7217613285714286</v>
       </c>
       <c r="M53" s="7">
         <f t="shared" si="0"/>
-        <v>1.9432613285714289</v>
+        <v>1.9456399000000004</v>
       </c>
       <c r="N53" s="7">
         <f t="shared" si="0"/>
-        <v>2.0301202571428569</v>
+        <v>2.0297131142857143</v>
       </c>
       <c r="O53" s="7">
         <f t="shared" si="0"/>
-        <v>2.0917595428571429</v>
+        <v>2.0897702571428569</v>
       </c>
       <c r="P53" s="7">
         <f t="shared" si="0"/>
-        <v>2.1919916857142856</v>
+        <v>2.1925059714285715</v>
       </c>
       <c r="Q53" s="7">
         <f t="shared" si="0"/>
-        <v>2.2949702571428574</v>
+        <v>2.2962488285714286</v>
       </c>
       <c r="R53" s="7">
         <f t="shared" si="0"/>
-        <v>2.4556059714285721</v>
+        <v>2.4609738285714298</v>
       </c>
       <c r="S53" s="7">
         <f t="shared" si="0"/>
-        <v>2.6201774000000007</v>
+        <v>2.6237345428571435</v>
       </c>
       <c r="T53" s="7">
         <f t="shared" si="0"/>
-        <v>2.8039666857142862</v>
+        <v>2.7647845428571429</v>
       </c>
       <c r="U53" s="7">
         <f t="shared" si="0"/>
-        <v>3.0622666857142868</v>
+        <v>3.0190345428571437</v>
       </c>
       <c r="V53" s="7">
         <f t="shared" si="0"/>
-        <v>3.162582142857143</v>
+        <v>3.1161071428571434</v>
       </c>
       <c r="W53" s="7">
         <f t="shared" si="0"/>
-        <v>3.2583892857142862</v>
+        <v>3.2163928571428575</v>
       </c>
       <c r="X53" s="7">
         <f t="shared" si="0"/>
-        <v>3.4693678571428577</v>
+        <v>3.471164285714285</v>
       </c>
       <c r="Y53" s="7">
         <f t="shared" si="0"/>
-        <v>3.576857142857143</v>
+        <v>3.5543321428571426</v>
       </c>
       <c r="Z53" s="7">
         <f t="shared" si="0"/>
-        <v>3.7100035714285702</v>
+        <v>3.6689749999999992</v>
       </c>
       <c r="AA53" s="7">
         <f t="shared" si="0"/>
-        <v>3.694228571428571</v>
+        <v>3.6729178571428567</v>
       </c>
       <c r="AB53" s="7">
         <f t="shared" si="0"/>
-        <v>3.6874571428571441</v>
+        <v>3.6405928571428574</v>
       </c>
       <c r="AC53" s="7">
         <f t="shared" si="0"/>
-        <v>3.6484357142857133</v>
+        <v>3.6169571428571423</v>
       </c>
       <c r="AD53" s="7">
         <f t="shared" si="0"/>
-        <v>3.6846035714285716</v>
+        <v>3.658521428571428</v>
       </c>
       <c r="AE53" s="7">
         <f t="shared" si="0"/>
-        <v>3.6074642857142853</v>
+        <v>3.567996428571429</v>
       </c>
       <c r="AF53" s="7">
         <f t="shared" si="0"/>
-        <v>3.5998857142857141</v>
+        <v>3.5388178571428575</v>
       </c>
       <c r="AG53" s="7">
         <f t="shared" si="0"/>
-        <v>3.4580000000000002</v>
-      </c>
-      <c r="AH53" s="8"/>
+        <v>3.3790749999999998</v>
+      </c>
+      <c r="AH53" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2930071428571437</v>
+      </c>
       <c r="AI53" s="8"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>52</v>
       </c>
@@ -14571,17 +12234,17 @@
       <c r="AH54" s="9"/>
       <c r="AI54" s="9"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
         <v>53</v>
       </c>
       <c r="AD55" s="12"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h80NrsLe/wxbq1Q2OV94++is+pxlleBYLgUuqCtyOoAslg40HmF7xGunHhfEjNYTTPaLg9jILrXMcg1EAaexQA==" saltValue="QSQGhjK5wjHS/XdQCrts5A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PJ7Vheqdbw6BHqd5o9XQ2hBTlM3a0oQXiZWKxJAG+hSpBVdYIS2URzgMVR4TiEMnPBfQmm+0jwC/E1BCcfeVUQ==" saltValue="YKdiBf+5zaQ4fjMPLiws4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
